--- a/20230306_TKI-342_KMZI_Pz4_MSHZ_DrozdovAD.xlsx
+++ b/20230306_TKI-342_KMZI_Pz4_MSHZ_DrozdovAD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\rep\repository_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA22C68-8C22-45A2-9A14-6911D9C32934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A0E21F-9009-4310-A5CB-AC56CCA35801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D673441F-1821-4FDA-B968-CF0A8E3E469F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{D673441F-1821-4FDA-B968-CF0A8E3E469F}"/>
   </bookViews>
   <sheets>
     <sheet name="Исх. данные" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,7 @@
     <sheet name="Зашифровка сообщения ответчика" sheetId="5" r:id="rId5"/>
     <sheet name="Расшифровк сообщения ответчика" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Частотность!$B$3:$B$47</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Частотность!$B$3:$B$48</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Частотность!$B$48</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Частотность!$C$3:$C$48</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Частотность!$P$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Частотность!$B$3:$B$48</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Частотность!$C$3:$C$48</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Частотность!$Q$21</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Частотность!$Q$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Частотность!$F$3:$F$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -54,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -611,7 +599,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -700,6 +688,14 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -715,6 +711,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -724,32 +723,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60% — акцент4 2" xfId="6" xr:uid="{AF39E938-1F2B-4D2A-B5F5-159C8F4CB6B4}"/>
@@ -1433,7 +1409,6 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1441,136 +1416,136 @@
               <c:strCache>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>О</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Е</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>О</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>А</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>И</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Н</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Т</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>С</c:v>
+                  <c:v>В</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Р</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>В</c:v>
+                  <c:v>Д</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Л</c:v>
+                  <c:v>Т</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>К</c:v>
+                  <c:v>С</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>М</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Д</c:v>
+                  <c:v>Ч</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>У</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ь</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Ы</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>З</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>,</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Л</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>П</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>У</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Я</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Ы</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Ь</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>Г</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>З</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>,</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>.</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v> </c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Б</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Й</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Ж</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Ш</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Ю</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>К</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Ф</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Я</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="33">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="34">
+                  <c:v>Щ</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="36">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="37">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="38">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="39">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="40">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Б</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Ч</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Й</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>Х</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>Ж</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Ш</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Ю</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>Ц</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>Щ</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>Э</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Ф</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>Ё</c:v>
@@ -1585,139 +1560,139 @@
             <c:numRef>
               <c:f>Частотность!$G$3:$G$48</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>0.09</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6.3333333333333339E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6666666666666667E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3333333333333333E-2</c:v>
+                  <c:v>4.6666666666666669E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6666666666666669E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3333333333333334E-2</c:v>
+                  <c:v>3.6666666666666667E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6666666666666671E-3</c:v>
+                  <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.04</c:v>
+                  <c:v>2.6666666666666668E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3333333333333334E-2</c:v>
+                  <c:v>2.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.02</c:v>
+                  <c:v>1.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3333333333333334E-2</c:v>
+                  <c:v>1.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6666666666666666E-2</c:v>
+                  <c:v>1.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.6666666666666666E-2</c:v>
+                  <c:v>1.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.12</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6666666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.6666666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>3.3333333333333335E-3</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
+                  <c:v>3.3333333333333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3333333333333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3333333333333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.6666666666666668E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.6666666666666671E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0</c:v>
@@ -1819,7 +1794,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2010,136 +1985,136 @@
               <c:strCache>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>И</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Т</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>И</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Д</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>М</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>С</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>Ё</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ф</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>З</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Ц</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>Х</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Ф</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Ё</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>П</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>О</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Р</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>З</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>У</c:v>
+                  <c:v>Ы</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Ч</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>,</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Я</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>,</c:v>
+                  <c:v>Л</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>П</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>У</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>Ж</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>Л</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Е</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Н</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>К</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Ь</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>О</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Ш</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="36">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="37">
+                  <c:v>Э</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="39">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>Е</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Ы</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Н</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>Щ</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>К</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Ь</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>Ъ</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>Э</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>.</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Ш</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>Й</c:v>
@@ -2154,139 +2129,139 @@
             <c:numRef>
               <c:f>Частотность!$L$3:$L$48</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.09</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>6.3333333333333339E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>4.6666666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3.6666666666666667E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3333333333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6666666666666669E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3333333333333334E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.6666666666666671E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.04</c:v>
+                  <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3333333333333334E-2</c:v>
+                  <c:v>2.6666666666666668E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>2.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3333333333333334E-2</c:v>
+                  <c:v>1.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3333333333333334E-2</c:v>
+                  <c:v>1.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.6666666666666666E-2</c:v>
+                  <c:v>1.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.12</c:v>
+                  <c:v>1.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>1.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.6666666666666666E-2</c:v>
+                  <c:v>1.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3333333333333334E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.12</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.6666666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.6666666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>3.3333333333333335E-3</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
+                  <c:v>3.3333333333333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3333333333333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3333333333333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.3333333333333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="39">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.6666666666666668E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.6666666666666671E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0</c:v>
@@ -2388,7 +2363,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4351,398 +4326,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Данные"/>
-      <sheetName val="Частотность"/>
-      <sheetName val="Зашифровка сообщения инииаотора"/>
-      <sheetName val="Расшифровка сообщения инициатор"/>
-      <sheetName val="Зашифровка сообщения ответчика"/>
-      <sheetName val="Расшифровка сообщения ответчика"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>О</v>
-          </cell>
-          <cell r="C4">
-            <v>9.05025E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Е</v>
-          </cell>
-          <cell r="C5">
-            <v>6.9712499999999983E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>А</v>
-          </cell>
-          <cell r="C6">
-            <v>6.6082500000000002E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>И</v>
-          </cell>
-          <cell r="C7">
-            <v>6.063749999999999E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>Н</v>
-          </cell>
-          <cell r="C8">
-            <v>5.5274999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>Т</v>
-          </cell>
-          <cell r="C9">
-            <v>5.1644999999999996E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>С</v>
-          </cell>
-          <cell r="C10">
-            <v>4.5127499999999994E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>Р</v>
-          </cell>
-          <cell r="C11">
-            <v>3.9022500000000002E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>В</v>
-          </cell>
-          <cell r="C12">
-            <v>3.7455000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>Л</v>
-          </cell>
-          <cell r="C13">
-            <v>3.6299999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>К</v>
-          </cell>
-          <cell r="C14">
-            <v>2.8792499999999999E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>М</v>
-          </cell>
-          <cell r="C15">
-            <v>2.6482499999999996E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>Д</v>
-          </cell>
-          <cell r="C16">
-            <v>2.4584999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>П</v>
-          </cell>
-          <cell r="C17">
-            <v>2.3182499999999998E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>У</v>
-          </cell>
-          <cell r="C18">
-            <v>2.1614999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>Я</v>
-          </cell>
-          <cell r="C19">
-            <v>1.6582499999999997E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>Ы</v>
-          </cell>
-          <cell r="C20">
-            <v>1.5674999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>Ь</v>
-          </cell>
-          <cell r="C21">
-            <v>1.4354999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>Г</v>
-          </cell>
-          <cell r="C22">
-            <v>1.4025000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>З</v>
-          </cell>
-          <cell r="C23">
-            <v>1.36125E-2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>,</v>
-          </cell>
-          <cell r="C24">
-            <v>1.3461538461538461E-2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>.</v>
-          </cell>
-          <cell r="C25">
-            <v>1.3461538461538461E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v xml:space="preserve"> </v>
-          </cell>
-          <cell r="C26">
-            <v>1.3461538461538461E-2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="C27">
-            <v>1.3461538461538461E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>2</v>
-          </cell>
-          <cell r="C28">
-            <v>1.3461538461538461E-2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>3</v>
-          </cell>
-          <cell r="C29">
-            <v>1.3461538461538461E-2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>4</v>
-          </cell>
-          <cell r="C30">
-            <v>1.3461538461538461E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>5</v>
-          </cell>
-          <cell r="C31">
-            <v>1.3461538461538461E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>6</v>
-          </cell>
-          <cell r="C32">
-            <v>1.3461538461538461E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>7</v>
-          </cell>
-          <cell r="C33">
-            <v>1.3461538461538461E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>8</v>
-          </cell>
-          <cell r="C34">
-            <v>1.3461538461538461E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>9</v>
-          </cell>
-          <cell r="C35">
-            <v>1.3461538461538461E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="C36">
-            <v>1.3461538461538461E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>Б</v>
-          </cell>
-          <cell r="C37">
-            <v>1.3117500000000001E-2</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>Ч</v>
-          </cell>
-          <cell r="C38">
-            <v>1.1879999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>Й</v>
-          </cell>
-          <cell r="C39">
-            <v>9.9824999999999983E-3</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>Х</v>
-          </cell>
-          <cell r="C40">
-            <v>8.0024999999999992E-3</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>Ж</v>
-          </cell>
-          <cell r="C41">
-            <v>7.7549999999999989E-3</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42" t="str">
-            <v>Ш</v>
-          </cell>
-          <cell r="C42">
-            <v>6.0225000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43" t="str">
-            <v>Ю</v>
-          </cell>
-          <cell r="C43">
-            <v>5.28E-3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44" t="str">
-            <v>Ц</v>
-          </cell>
-          <cell r="C44">
-            <v>3.9599999999999991E-3</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45" t="str">
-            <v>Щ</v>
-          </cell>
-          <cell r="C45">
-            <v>2.9699999999999996E-3</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46" t="str">
-            <v>Э</v>
-          </cell>
-          <cell r="C46">
-            <v>2.64E-3</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47" t="str">
-            <v>Ф</v>
-          </cell>
-          <cell r="C47">
-            <v>2.1449999999999998E-3</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48" t="str">
-            <v>Ё</v>
-          </cell>
-          <cell r="C48">
-            <v>3.3E-4</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49" t="str">
-            <v>Ъ</v>
-          </cell>
-          <cell r="C49">
-            <v>3.3E-4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -5042,7 +4625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C355FE6-8A4E-427E-A252-8FC5964A4D12}">
   <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -5058,23 +4641,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="38"/>
       <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="35"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="32"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="26" t="s">
         <v>53</v>
       </c>
@@ -5112,10 +4695,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="9"/>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="33"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="13">
         <f>LEN(K1)</f>
         <v>141</v>
@@ -5170,10 +4753,10 @@
         <v>4</v>
       </c>
       <c r="H4" s="9"/>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="38"/>
       <c r="K4" s="26" t="s">
         <v>52</v>
       </c>
@@ -5210,10 +4793,10 @@
         <v>5</v>
       </c>
       <c r="H5" s="10"/>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="32"/>
+      <c r="J5" s="38"/>
       <c r="K5" s="13">
         <f>LEN(K4)</f>
         <v>159</v>
@@ -6049,8 +5632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7A7155-FABF-4109-83DC-B1A5A1B8DBDA}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AF94" sqref="AF94"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6071,33 +5654,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="18"/>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="J1" s="32" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="J1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
       <c r="O1" s="10"/>
       <c r="R1" s="29"/>
       <c r="S1" s="29"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="7" t="s">
         <v>54</v>
       </c>
@@ -6140,29 +5723,29 @@
         <v>1</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G3" s="24">
         <f>H3/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.09</v>
-      </c>
-      <c r="H3" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="H3" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F3),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F3),""))</f>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J3" s="15">
         <v>1</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="L3" s="24">
         <f>M3/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.09</v>
-      </c>
-      <c r="M3" s="51">
+        <v>0.12</v>
+      </c>
+      <c r="M3" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K3),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K3),""))</f>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O3" s="10"/>
       <c r="Q3" s="29"/>
@@ -6189,23 +5772,23 @@
         <f>H4/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
         <v>0.1</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F4),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F4),""))</f>
         <v>30</v>
       </c>
       <c r="J4" s="16">
         <v>2</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>24</v>
+      <c r="K4" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="L4" s="24">
         <f>M4/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.1</v>
-      </c>
-      <c r="M4" s="51">
+        <v>0.12</v>
+      </c>
+      <c r="M4" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K4),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K4),""))</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O4" s="10"/>
       <c r="Q4" s="29"/>
@@ -6222,33 +5805,33 @@
       <c r="C5" s="21">
         <v>6.6082500000000002E-2</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>3</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G5" s="24">
         <f>H5/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>6.3333333333333339E-2</v>
-      </c>
-      <c r="H5" s="50">
+        <v>0.09</v>
+      </c>
+      <c r="H5" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F5),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F5),""))</f>
-        <v>19</v>
-      </c>
-      <c r="J5" s="16">
+        <v>27</v>
+      </c>
+      <c r="J5" s="15">
         <v>3</v>
       </c>
-      <c r="K5" s="17" t="s">
-        <v>19</v>
+      <c r="K5" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="L5" s="24">
         <f>M5/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>6.3333333333333339E-2</v>
-      </c>
-      <c r="M5" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="M5" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K5),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K5),""))</f>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="O5" s="10"/>
       <c r="Q5" s="29"/>
@@ -6269,29 +5852,29 @@
         <v>4</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G6" s="24">
         <f>H6/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.06</v>
-      </c>
-      <c r="H6" s="50">
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="H6" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F6),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F6),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" s="16">
         <v>4</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L6" s="24">
         <f>M6/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.06</v>
-      </c>
-      <c r="M6" s="51">
+        <v>0.09</v>
+      </c>
+      <c r="M6" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K6),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K6),""))</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="O6" s="10"/>
       <c r="Q6" s="29"/>
@@ -6308,33 +5891,33 @@
       <c r="C7" s="21">
         <v>5.5274999999999998E-2</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>5</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G7" s="24">
         <f>H7/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
         <v>0.06</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F7),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F7),""))</f>
         <v>18</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>5</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L7" s="24">
         <f>M7/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.06</v>
-      </c>
-      <c r="M7" s="51">
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="M7" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K7),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K7),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O7" s="10"/>
       <c r="Q7" s="29"/>
@@ -6355,29 +5938,29 @@
         <v>6</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G8" s="24">
         <f>H8/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>3.6666666666666667E-2</v>
-      </c>
-      <c r="H8" s="50">
+        <v>0.06</v>
+      </c>
+      <c r="H8" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F8),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F8),""))</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J8" s="16">
         <v>6</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L8" s="24">
         <f>M8/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>3.6666666666666667E-2</v>
-      </c>
-      <c r="M8" s="51">
+        <v>0.06</v>
+      </c>
+      <c r="M8" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K8),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K8),""))</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="O8" s="10"/>
       <c r="Q8" s="29"/>
@@ -6394,33 +5977,33 @@
       <c r="C9" s="21">
         <v>4.5127499999999994E-2</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>7</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G9" s="24">
         <f>H9/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="H9" s="50">
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="H9" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F9),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F9),""))</f>
-        <v>10</v>
-      </c>
-      <c r="J9" s="16">
+        <v>14</v>
+      </c>
+      <c r="J9" s="15">
         <v>7</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L9" s="24">
         <f>M9/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="M9" s="51">
+        <v>0.06</v>
+      </c>
+      <c r="M9" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K9),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K9),""))</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O9" s="10"/>
       <c r="Q9" s="29"/>
@@ -6447,7 +6030,7 @@
         <f>H10/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
         <v>0.04</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F10),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F10),""))</f>
         <v>12</v>
       </c>
@@ -6455,15 +6038,15 @@
         <v>8</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L10" s="24">
         <f>M10/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.04</v>
-      </c>
-      <c r="M10" s="51">
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="M10" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K10),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K10),""))</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O10" s="10"/>
       <c r="Q10" s="29"/>
@@ -6480,33 +6063,33 @@
       <c r="C11" s="21">
         <v>3.7455000000000002E-2</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>9</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" s="24">
         <f>H11/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>4.6666666666666669E-2</v>
-      </c>
-      <c r="H11" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="H11" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F11),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F11),""))</f>
-        <v>14</v>
-      </c>
-      <c r="J11" s="16">
+        <v>12</v>
+      </c>
+      <c r="J11" s="15">
         <v>9</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L11" s="24">
         <f>M11/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>4.6666666666666669E-2</v>
-      </c>
-      <c r="M11" s="51">
+        <v>0.04</v>
+      </c>
+      <c r="M11" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K11),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K11),""))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O11" s="10"/>
       <c r="Q11" s="29"/>
@@ -6527,29 +6110,29 @@
         <v>10</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G12" s="24">
         <f>H12/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="H12" s="50">
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="H12" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F12),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F12),""))</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J12" s="16">
         <v>10</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L12" s="24">
         <f>M12/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="M12" s="51">
+        <v>0.04</v>
+      </c>
+      <c r="M12" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K12),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K12),""))</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O12" s="10"/>
       <c r="Q12" s="29"/>
@@ -6566,33 +6149,33 @@
       <c r="C13" s="21">
         <v>2.8792499999999999E-2</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>11</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G13" s="24">
         <f>H13/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="H13" s="50">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H13" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F13),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F13),""))</f>
-        <v>2</v>
-      </c>
-      <c r="J13" s="16">
+        <v>10</v>
+      </c>
+      <c r="J13" s="15">
         <v>11</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L13" s="24">
         <f>M13/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="M13" s="51">
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="M13" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K13),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K13),""))</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O13" s="10"/>
       <c r="Q13" s="29"/>
@@ -6619,7 +6202,7 @@
         <f>H14/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F14),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F14),""))</f>
         <v>10</v>
       </c>
@@ -6627,13 +6210,13 @@
         <v>12</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L14" s="24">
         <f>M14/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K14),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K14),""))</f>
         <v>10</v>
       </c>
@@ -6652,33 +6235,33 @@
       <c r="C15" s="21">
         <v>2.4584999999999999E-2</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>13</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G15" s="24">
         <f>H15/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.04</v>
-      </c>
-      <c r="H15" s="50">
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="H15" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F15),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F15),""))</f>
-        <v>12</v>
-      </c>
-      <c r="J15" s="16">
+        <v>8</v>
+      </c>
+      <c r="J15" s="15">
         <v>13</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L15" s="24">
         <f>M15/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.04</v>
-      </c>
-      <c r="M15" s="51">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="M15" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K15),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K15),""))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O15" s="10"/>
       <c r="Q15" s="29"/>
@@ -6699,29 +6282,29 @@
         <v>14</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G16" s="24">
         <f>H16/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="H16" s="50">
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="H16" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F16),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F16),""))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J16" s="16">
         <v>14</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L16" s="24">
         <f>M16/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="M16" s="51">
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="M16" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K16),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K16),""))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O16" s="10"/>
       <c r="Q16" s="29"/>
@@ -6738,21 +6321,21 @@
       <c r="C17" s="21">
         <v>2.1614999999999999E-2</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>15</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G17" s="24">
         <f>H17/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
         <v>2.3333333333333334E-2</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F17),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F17),""))</f>
         <v>7</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="15">
         <v>15</v>
       </c>
       <c r="K17" s="17" t="s">
@@ -6762,7 +6345,7 @@
         <f>M17/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
         <v>2.3333333333333334E-2</v>
       </c>
-      <c r="M17" s="51">
+      <c r="M17" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K17),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K17),""))</f>
         <v>7</v>
       </c>
@@ -6785,29 +6368,29 @@
         <v>16</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G18" s="24">
         <f>H18/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="H18" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="H18" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F18),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F18),""))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J18" s="16">
         <v>16</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L18" s="24">
         <f>M18/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="M18" s="51">
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="M18" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K18),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K18),""))</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O18" s="10"/>
       <c r="Q18" s="29"/>
@@ -6824,21 +6407,21 @@
       <c r="C19" s="21">
         <v>1.5674999999999998E-2</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>17</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G19" s="24">
         <f>H19/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.02</v>
-      </c>
-      <c r="H19" s="50">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H19" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F19),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F19),""))</f>
-        <v>6</v>
-      </c>
-      <c r="J19" s="16">
+        <v>5</v>
+      </c>
+      <c r="J19" s="15">
         <v>17</v>
       </c>
       <c r="K19" s="17" t="s">
@@ -6848,7 +6431,7 @@
         <f>M19/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
         <v>0.02</v>
       </c>
-      <c r="M19" s="51">
+      <c r="M19" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K19),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K19),""))</f>
         <v>6</v>
       </c>
@@ -6871,29 +6454,29 @@
         <v>18</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="G20" s="24">
         <f>H20/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>2.3333333333333334E-2</v>
-      </c>
-      <c r="H20" s="50">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H20" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F20),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F20),""))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J20" s="16">
         <v>18</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="L20" s="24">
         <f>M20/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>2.3333333333333334E-2</v>
-      </c>
-      <c r="M20" s="51">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="M20" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K20),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K20),""))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O20" s="10"/>
       <c r="Q20" s="29"/>
@@ -6910,33 +6493,33 @@
       <c r="C21" s="21">
         <v>1.4025000000000001E-2</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>19</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G21" s="24">
         <f>H21/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F21),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F21),""))</f>
         <v>4</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="15">
         <v>19</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="L21" s="24">
         <f>M21/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="M21" s="51">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="M21" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K21),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K21),""))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O21" s="10"/>
       <c r="Q21" s="29"/>
@@ -6957,27 +6540,27 @@
         <v>20</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G22" s="24">
         <f>H22/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="H22" s="50">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="H22" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F22),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F22),""))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" s="16">
         <v>20</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="L22" s="24">
         <f>M22/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="M22" s="51">
+      <c r="M22" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K22),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K22),""))</f>
         <v>5</v>
       </c>
@@ -6996,33 +6579,33 @@
       <c r="C23" s="21">
         <v>1.3461538461538461E-2</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>21</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G23" s="24">
         <f>H23/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="H23" s="50">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="H23" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F23),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F23),""))</f>
-        <v>5</v>
-      </c>
-      <c r="J23" s="16">
+        <v>4</v>
+      </c>
+      <c r="J23" s="15">
         <v>21</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="L23" s="24">
         <f>M23/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="M23" s="51">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="M23" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K23),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K23),""))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O23" s="10"/>
       <c r="Q23" s="29"/>
@@ -7049,7 +6632,7 @@
         <f>H24/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F24),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F24),""))</f>
         <v>4</v>
       </c>
@@ -7057,13 +6640,13 @@
         <v>22</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L24" s="24">
         <f>M24/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="M24" s="51">
+      <c r="M24" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K24),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K24),""))</f>
         <v>4</v>
       </c>
@@ -7082,33 +6665,33 @@
       <c r="C25" s="21">
         <v>1.3461538461538461E-2</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <v>23</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G25" s="24">
         <f>H25/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.12</v>
-      </c>
-      <c r="H25" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="H25" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F25),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F25),""))</f>
-        <v>36</v>
-      </c>
-      <c r="J25" s="16">
+        <v>3</v>
+      </c>
+      <c r="J25" s="15">
         <v>23</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L25" s="24">
         <f>M25/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.12</v>
-      </c>
-      <c r="M25" s="51">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="M25" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K25),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K25),""))</f>
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="O25" s="10"/>
       <c r="Q25" s="29"/>
@@ -7129,29 +6712,29 @@
         <v>24</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G26" s="24">
         <f>H26/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="H26" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="H26" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F26),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F26),""))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" s="16">
         <v>24</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L26" s="24">
         <f>M26/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="M26" s="51">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="M26" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K26),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K26),""))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O26" s="10"/>
       <c r="Q26" s="29"/>
@@ -7168,36 +6751,36 @@
       <c r="C27" s="21">
         <v>1.3461538461538461E-2</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="15">
         <v>25</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G27" s="24">
         <f>H27/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
         <v>0.01</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F27),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F27),""))</f>
         <v>3</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="15">
         <v>25</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L27" s="24">
         <f>M27/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="M27" s="51">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="M27" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K27),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K27),""))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O27" s="10"/>
-      <c r="P27" s="52"/>
+      <c r="P27" s="36"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="29"/>
@@ -7216,29 +6799,29 @@
         <v>26</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G28" s="24">
         <f>H28/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="H28" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="H28" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F28),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F28),""))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" s="16">
         <v>26</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L28" s="24">
         <f>M28/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="M28" s="51">
+        <v>0.01</v>
+      </c>
+      <c r="M28" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K28),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K28),""))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O28" s="10"/>
       <c r="Q28" s="29"/>
@@ -7255,33 +6838,33 @@
       <c r="C29" s="21">
         <v>1.3461538461538461E-2</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="15">
         <v>27</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G29" s="24">
         <f>H29/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="H29" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F29),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F29),""))</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="16">
+        <v>3</v>
+      </c>
+      <c r="J29" s="15">
         <v>27</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L29" s="24">
         <f>M29/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.12</v>
-      </c>
-      <c r="M29" s="51">
+        <v>0.01</v>
+      </c>
+      <c r="M29" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K29),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K29),""))</f>
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="O29" s="10"/>
       <c r="Q29" s="29"/>
@@ -7302,29 +6885,29 @@
         <v>28</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="G30" s="24">
         <f>H30/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="H30" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F30),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F30),""))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" s="16">
         <v>28</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="L30" s="24">
         <f>M30/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="M30" s="51">
+        <v>0.01</v>
+      </c>
+      <c r="M30" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K30),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K30),""))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O30" s="10"/>
       <c r="Q30" s="29"/>
@@ -7341,31 +6924,31 @@
       <c r="C31" s="21">
         <v>1.3461538461538461E-2</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <v>29</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="G31" s="24">
         <f>H31/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="H31" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F31),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F31),""))</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="16">
+        <v>3</v>
+      </c>
+      <c r="J31" s="15">
         <v>29</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L31" s="24">
         <f>M31/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
         <v>0.01</v>
       </c>
-      <c r="M31" s="51">
+      <c r="M31" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K31),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K31),""))</f>
         <v>3</v>
       </c>
@@ -7388,29 +6971,29 @@
         <v>30</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G32" s="24">
         <f>H32/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="50">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="H32" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F32),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F32),""))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" s="16">
         <v>30</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="L32" s="24">
         <f>M32/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="M32" s="51">
+        <v>0.01</v>
+      </c>
+      <c r="M32" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K32),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K32),""))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O32" s="10"/>
       <c r="Q32" s="29"/>
@@ -7427,33 +7010,33 @@
       <c r="C33" s="21">
         <v>1.3461538461538461E-2</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="15">
         <v>31</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G33" s="24">
         <f>H33/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="50">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="H33" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F33),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F33),""))</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="16">
+        <v>2</v>
+      </c>
+      <c r="J33" s="15">
         <v>31</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L33" s="24">
         <f>M33/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="51">
+        <v>0.01</v>
+      </c>
+      <c r="M33" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K33),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K33),""))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O33" s="10"/>
       <c r="Q33" s="29"/>
@@ -7474,29 +7057,29 @@
         <v>32</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G34" s="24">
         <f>H34/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="50">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="H34" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F34),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F34),""))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="16">
         <v>32</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L34" s="24">
         <f>M34/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="51">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="M34" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K34),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K34),""))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O34" s="10"/>
       <c r="Q34" s="29"/>
@@ -7513,33 +7096,33 @@
       <c r="C35" s="21">
         <v>1.3461538461538461E-2</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <v>33</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G35" s="24">
         <f>H35/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.01</v>
-      </c>
-      <c r="H35" s="50">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="H35" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F35),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F35),""))</f>
-        <v>3</v>
-      </c>
-      <c r="J35" s="16">
+        <v>1</v>
+      </c>
+      <c r="J35" s="15">
         <v>33</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="L35" s="24">
         <f>M35/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="51">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="M35" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K35),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K35),""))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O35" s="10"/>
       <c r="Q35" s="29"/>
@@ -7560,29 +7143,29 @@
         <v>34</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G36" s="24">
         <f>H36/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.01</v>
-      </c>
-      <c r="H36" s="50">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="H36" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F36),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F36),""))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J36" s="16">
         <v>34</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L36" s="24">
         <f>M36/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.01</v>
-      </c>
-      <c r="M36" s="51">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="M36" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K36),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K36),""))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O36" s="10"/>
       <c r="Q36" s="29"/>
@@ -7599,33 +7182,33 @@
       <c r="C37" s="21">
         <v>1.1879999999999998E-2</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="15">
         <v>35</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G37" s="24">
         <f>H37/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="H37" s="50">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="H37" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F37),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F37),""))</f>
-        <v>8</v>
-      </c>
-      <c r="J37" s="16">
+        <v>1</v>
+      </c>
+      <c r="J37" s="15">
         <v>35</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="L37" s="24">
         <f>M37/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="M37" s="51">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="M37" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K37),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K37),""))</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O37" s="10"/>
       <c r="Q37" s="29"/>
@@ -7646,29 +7229,29 @@
         <v>36</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G38" s="24">
         <f>H38/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.01</v>
-      </c>
-      <c r="H38" s="50">
+        <v>0</v>
+      </c>
+      <c r="H38" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F38),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F38),""))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" s="16">
         <v>36</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="L38" s="24">
         <f>M38/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.01</v>
-      </c>
-      <c r="M38" s="51">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="M38" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K38),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K38),""))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O38" s="10"/>
       <c r="Q38" s="29"/>
@@ -7685,33 +7268,33 @@
       <c r="C39" s="21">
         <v>8.0024999999999992E-3</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="15">
         <v>37</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G39" s="24">
         <f>H39/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
         <v>0</v>
       </c>
-      <c r="H39" s="50">
+      <c r="H39" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F39),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F39),""))</f>
         <v>0</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="15">
         <v>37</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L39" s="24">
         <f>M39/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="51">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="M39" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K39),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K39),""))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="10"/>
       <c r="Q39" s="29"/>
@@ -7732,29 +7315,29 @@
         <v>38</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G40" s="24">
         <f>H40/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.01</v>
-      </c>
-      <c r="H40" s="50">
+        <v>0</v>
+      </c>
+      <c r="H40" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F40),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F40),""))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J40" s="16">
         <v>38</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="L40" s="24">
         <f>M40/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.01</v>
-      </c>
-      <c r="M40" s="51">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="M40" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K40),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K40),""))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O40" s="10"/>
       <c r="Q40" s="29"/>
@@ -7771,33 +7354,33 @@
       <c r="C41" s="21">
         <v>6.0225000000000001E-3</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="15">
         <v>39</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G41" s="24">
         <f>H41/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.01</v>
-      </c>
-      <c r="H41" s="50">
+        <v>0</v>
+      </c>
+      <c r="H41" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F41),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F41),""))</f>
-        <v>3</v>
-      </c>
-      <c r="J41" s="16">
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
         <v>39</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="L41" s="24">
         <f>M41/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.01</v>
-      </c>
-      <c r="M41" s="51">
+        <v>0</v>
+      </c>
+      <c r="M41" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K41),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K41),""))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O41" s="10"/>
       <c r="Q41" s="29"/>
@@ -7818,29 +7401,29 @@
         <v>40</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G42" s="24">
         <f>H42/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.01</v>
-      </c>
-      <c r="H42" s="50">
+        <v>0</v>
+      </c>
+      <c r="H42" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F42),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F42),""))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42" s="16">
         <v>40</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L42" s="24">
         <f>M42/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.01</v>
-      </c>
-      <c r="M42" s="51">
+        <v>0</v>
+      </c>
+      <c r="M42" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K42),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K42),""))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O42" s="10"/>
       <c r="Q42" s="29"/>
@@ -7857,31 +7440,31 @@
       <c r="C43" s="21">
         <v>3.9599999999999991E-3</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="15">
         <v>41</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G43" s="24">
         <f>H43/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
         <v>0</v>
       </c>
-      <c r="H43" s="50">
+      <c r="H43" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F43),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F43),""))</f>
         <v>0</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J43" s="15">
         <v>41</v>
       </c>
       <c r="K43" s="17" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="L43" s="24">
         <f>M43/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
         <v>0</v>
       </c>
-      <c r="M43" s="51">
+      <c r="M43" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K43),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K43),""))</f>
         <v>0</v>
       </c>
@@ -7904,29 +7487,29 @@
         <v>42</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G44" s="24">
         <f>H44/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="H44" s="50">
+        <v>0</v>
+      </c>
+      <c r="H44" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F44),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F44),""))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="16">
         <v>42</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L44" s="24">
         <f>M44/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="M44" s="51">
+        <v>0</v>
+      </c>
+      <c r="M44" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K44),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K44),""))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" s="10"/>
       <c r="Q44" s="29"/>
@@ -7943,31 +7526,31 @@
       <c r="C45" s="21">
         <v>2.64E-3</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="15">
         <v>43</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G45" s="24">
         <f>H45/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
         <v>0</v>
       </c>
-      <c r="H45" s="50">
+      <c r="H45" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F45),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F45),""))</f>
         <v>0</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J45" s="15">
         <v>43</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="L45" s="24">
         <f>M45/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
         <v>0</v>
       </c>
-      <c r="M45" s="51">
+      <c r="M45" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K45),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K45),""))</f>
         <v>0</v>
       </c>
@@ -7990,29 +7573,29 @@
         <v>44</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G46" s="24">
         <f>H46/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="H46" s="50">
+        <v>0</v>
+      </c>
+      <c r="H46" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F46),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F46),""))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" s="16">
         <v>44</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="L46" s="24">
         <f>M46/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="M46" s="51">
+        <v>0</v>
+      </c>
+      <c r="M46" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K46),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K46),""))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O46" s="10"/>
       <c r="Q46" s="29"/>
@@ -8029,7 +7612,7 @@
       <c r="C47" s="21">
         <v>3.3E-4</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="15">
         <v>45</v>
       </c>
       <c r="F47" s="14" t="s">
@@ -8039,11 +7622,11 @@
         <f>H47/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
         <v>0</v>
       </c>
-      <c r="H47" s="50">
+      <c r="H47" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F47),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F47),""))</f>
         <v>0</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J47" s="15">
         <v>45</v>
       </c>
       <c r="K47" s="17" t="s">
@@ -8053,7 +7636,7 @@
         <f>M47/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
         <v>0</v>
       </c>
-      <c r="M47" s="51">
+      <c r="M47" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K47),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K47),""))</f>
         <v>0</v>
       </c>
@@ -8069,7 +7652,7 @@
       <c r="C48" s="22">
         <v>3.3E-4</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="16">
         <v>46</v>
       </c>
       <c r="F48" s="20" t="s">
@@ -8079,11 +7662,11 @@
         <f>H48/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
         <v>0</v>
       </c>
-      <c r="H48" s="50">
+      <c r="H48" s="47">
         <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F48),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F48),""))</f>
         <v>0</v>
       </c>
-      <c r="J48" s="19">
+      <c r="J48" s="16">
         <v>46</v>
       </c>
       <c r="K48" s="23" t="s">
@@ -8093,41 +7676,41 @@
         <f>M48/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
         <v>0</v>
       </c>
-      <c r="M48" s="51">
+      <c r="M48" s="35">
         <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K48),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K48),""))</f>
         <v>0</v>
       </c>
       <c r="Q48" s="29"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="53">
+      <c r="B49" s="42"/>
+      <c r="C49" s="37">
         <f>SUM(C3:C48)</f>
         <v>1.0000824999999993</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="36"/>
-      <c r="G49" s="53">
+      <c r="F49" s="42"/>
+      <c r="G49" s="37">
         <f>SUM(G3:G48)</f>
         <v>1</v>
       </c>
-      <c r="J49" s="36" t="s">
+      <c r="J49" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="36"/>
-      <c r="L49" s="53">
+      <c r="K49" s="42"/>
+      <c r="L49" s="37">
         <f>SUM(L3:L48)</f>
-        <v>1.1433333333333335</v>
+        <v>1.143333333333334</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R1:S50">
-    <sortCondition ref="R1:R50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K3:M48">
+    <sortCondition descending="1" ref="L3:L48"/>
   </sortState>
   <mergeCells count="7">
     <mergeCell ref="J1:M1"/>
@@ -8140,7 +7723,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B26:B35 F26:F35 K18" numberStoredAsText="1"/>
+    <ignoredError sqref="B26:B35" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8150,8 +7733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB68A973-9458-4063-B273-25649E9D8070}">
   <dimension ref="A1:AA151"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8166,75 +7749,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="47"/>
-      <c r="Y1" s="32" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="34"/>
+      <c r="Y1" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="32"/>
+      <c r="Z1" s="38"/>
       <c r="AA1" s="25">
         <f>LEN(C1)</f>
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="48" t="str">
+      <c r="B3" s="38"/>
+      <c r="C3" s="25" t="str">
         <f>H148</f>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТТЕЭД 4ЁДР24ЫЦТ4УФДОЦМЫИХОТИ4ЛДЗДСМИ4СТРИФ4ЫИЦЯФИ4ЕЯПТ4УТПСТХЦ, 4ЁЯУТПСИСТ24ЗФТЛЗТЁ4ДСЦТС4ЗРМЦФМИЁМЫ4Г735636ГГ6</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="Y3" s="32" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="Y3" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="32"/>
+      <c r="Z3" s="38"/>
       <c r="AA3" s="25">
         <f>LEN(C3)</f>
         <v>141</v>
@@ -8251,7 +7834,7 @@
       <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="41" t="str" cm="1">
+      <c r="G8" s="3" t="str" cm="1">
         <f t="array" ref="G8">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D8,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D8,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D8,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ч</v>
       </c>
@@ -8259,13 +7842,6 @@
         <f>G8</f>
         <v>Ч</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C9" s="7">
@@ -8278,7 +7854,7 @@
       <c r="F9" s="7">
         <v>2</v>
       </c>
-      <c r="G9" s="41" t="str" cm="1">
+      <c r="G9" s="3" t="str" cm="1">
         <f t="array" ref="G9">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D9,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D9,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D9,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ё</v>
       </c>
@@ -8286,13 +7862,10 @@
         <f>H8&amp;G9</f>
         <v>ЧЁ</v>
       </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C10" s="7">
@@ -8305,7 +7878,7 @@
       <c r="F10" s="7">
         <v>3</v>
       </c>
-      <c r="G10" s="41" t="str" cm="1">
+      <c r="G10" s="3" t="str" cm="1">
         <f t="array" ref="G10">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D10,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D10,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D10,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -8313,13 +7886,10 @@
         <f t="shared" ref="H10:H73" si="1">H9&amp;G10</f>
         <v>ЧЁД</v>
       </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C11" s="7">
@@ -8332,7 +7902,7 @@
       <c r="F11" s="7">
         <v>4</v>
       </c>
-      <c r="G11" s="41" t="str" cm="1">
+      <c r="G11" s="3" t="str" cm="1">
         <f t="array" ref="G11">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D11,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D11,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D11,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>К</v>
       </c>
@@ -8340,13 +7910,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДК</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C12" s="7">
@@ -8359,7 +7926,7 @@
       <c r="F12" s="7">
         <v>5</v>
       </c>
-      <c r="G12" s="41" t="str" cm="1">
+      <c r="G12" s="3" t="str" cm="1">
         <f t="array" ref="G12">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D12,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D12,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D12,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -8367,13 +7934,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКД</v>
       </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C13" s="7">
@@ -8386,7 +7950,7 @@
       <c r="F13" s="7">
         <v>6</v>
       </c>
-      <c r="G13" s="41" t="str" cm="1">
+      <c r="G13" s="3" t="str" cm="1">
         <f t="array" ref="G13">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D13,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D13,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D13,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -8394,13 +7958,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИ</v>
       </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C14" s="7">
@@ -8413,7 +7974,7 @@
       <c r="F14" s="7">
         <v>7</v>
       </c>
-      <c r="G14" s="41" t="str" cm="1">
+      <c r="G14" s="3" t="str" cm="1">
         <f t="array" ref="G14">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D14,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D14,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D14,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Р</v>
       </c>
@@ -8421,13 +7982,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИР</v>
       </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C15" s="7">
@@ -8440,7 +7998,7 @@
       <c r="F15" s="7">
         <v>8</v>
       </c>
-      <c r="G15" s="41" t="str" cm="1">
+      <c r="G15" s="3" t="str" cm="1">
         <f t="array" ref="G15">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D15,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D15,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D15,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Я</v>
       </c>
@@ -8448,13 +8006,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯ</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C16" s="7">
@@ -8467,7 +8022,7 @@
       <c r="F16" s="7">
         <v>9</v>
       </c>
-      <c r="G16" s="41" t="str" cm="1">
+      <c r="G16" s="3" t="str" cm="1">
         <f t="array" ref="G16">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D16,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D16,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D16,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Н</v>
       </c>
@@ -8475,13 +8030,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C17" s="7">
@@ -8494,7 +8046,7 @@
       <c r="F17" s="7">
         <v>10</v>
       </c>
-      <c r="G17" s="41" t="str" cm="1">
+      <c r="G17" s="3" t="str" cm="1">
         <f t="array" ref="G17">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D17,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D17,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D17,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -8502,13 +8054,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C18" s="7">
@@ -8521,7 +8070,7 @@
       <c r="F18" s="7">
         <v>11</v>
       </c>
-      <c r="G18" s="41" t="str" cm="1">
+      <c r="G18" s="3" t="str" cm="1">
         <f t="array" ref="G18">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D18,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D18,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D18,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>М</v>
       </c>
@@ -8529,13 +8078,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4М</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C19" s="7">
@@ -8548,7 +8094,7 @@
       <c r="F19" s="7">
         <v>12</v>
       </c>
-      <c r="G19" s="41" t="str" cm="1">
+      <c r="G19" s="3" t="str" cm="1">
         <f t="array" ref="G19">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D19,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D19,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D19,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ж</v>
       </c>
@@ -8556,13 +8102,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖ</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C20" s="7">
@@ -8575,7 +8118,7 @@
       <c r="F20" s="7">
         <v>13</v>
       </c>
-      <c r="G20" s="41" t="str" cm="1">
+      <c r="G20" s="3" t="str" cm="1">
         <f t="array" ref="G20">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D20,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D20,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D20,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -8583,13 +8126,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТ</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C21" s="7">
@@ -8602,7 +8142,7 @@
       <c r="F21" s="7">
         <v>14</v>
       </c>
-      <c r="G21" s="41" t="str" cm="1">
+      <c r="G21" s="3" t="str" cm="1">
         <f t="array" ref="G21">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D21,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D21,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D21,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ф</v>
       </c>
@@ -8610,13 +8150,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C22" s="7">
@@ -8629,7 +8166,7 @@
       <c r="F22" s="7">
         <v>15</v>
       </c>
-      <c r="G22" s="41" t="str" cm="1">
+      <c r="G22" s="3" t="str" cm="1">
         <f t="array" ref="G22">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D22,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D22,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D22,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>,</v>
       </c>
@@ -8637,13 +8174,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C23" s="7">
@@ -8656,7 +8190,7 @@
       <c r="F23" s="7">
         <v>16</v>
       </c>
-      <c r="G23" s="41" t="str" cm="1">
+      <c r="G23" s="3" t="str" cm="1">
         <f t="array" ref="G23">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D23,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D23,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D23,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -8664,13 +8198,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C24" s="7">
@@ -8683,7 +8214,7 @@
       <c r="F24" s="7">
         <v>17</v>
       </c>
-      <c r="G24" s="41" t="str" cm="1">
+      <c r="G24" s="3" t="str" cm="1">
         <f t="array" ref="G24">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D24,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D24,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D24,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ш</v>
       </c>
@@ -8691,13 +8222,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4Ш</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C25" s="7">
@@ -8710,7 +8238,7 @@
       <c r="F25" s="7">
         <v>18</v>
       </c>
-      <c r="G25" s="41" t="str" cm="1">
+      <c r="G25" s="3" t="str" cm="1">
         <f t="array" ref="G25">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D25,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D25,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D25,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -8718,13 +8246,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИ</v>
       </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C26" s="7">
@@ -8737,7 +8262,7 @@
       <c r="F26" s="7">
         <v>19</v>
       </c>
-      <c r="G26" s="41" t="str" cm="1">
+      <c r="G26" s="3" t="str" cm="1">
         <f t="array" ref="G26">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D26,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D26,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D26,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -8745,13 +8270,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТ</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C27" s="7">
@@ -8764,7 +8286,7 @@
       <c r="F27" s="7">
         <v>20</v>
       </c>
-      <c r="G27" s="41" t="str" cm="1">
+      <c r="G27" s="3" t="str" cm="1">
         <f t="array" ref="G27">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D27,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D27,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D27,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>З</v>
       </c>
@@ -8772,13 +8294,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗ</v>
       </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C28" s="7">
@@ -8791,7 +8310,7 @@
       <c r="F28" s="7">
         <v>21</v>
       </c>
-      <c r="G28" s="41" t="str" cm="1">
+      <c r="G28" s="3" t="str" cm="1">
         <f t="array" ref="G28">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D28,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D28,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D28,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -8799,13 +8318,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТ</v>
       </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C29" s="7">
@@ -8818,7 +8334,7 @@
       <c r="F29" s="7">
         <v>22</v>
       </c>
-      <c r="G29" s="41" t="str" cm="1">
+      <c r="G29" s="3" t="str" cm="1">
         <f t="array" ref="G29">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D29,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D29,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D29,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Х</v>
       </c>
@@ -8826,13 +8342,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ</v>
       </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C30" s="7">
@@ -8845,7 +8358,7 @@
       <c r="F30" s="7">
         <v>23</v>
       </c>
-      <c r="G30" s="41" t="str" cm="1">
+      <c r="G30" s="3" t="str" cm="1">
         <f t="array" ref="G30">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D30,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D30,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D30,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>,</v>
       </c>
@@ -8853,13 +8366,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,</v>
       </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C31" s="7">
@@ -8872,7 +8382,7 @@
       <c r="F31" s="7">
         <v>24</v>
       </c>
-      <c r="G31" s="41" t="str" cm="1">
+      <c r="G31" s="3" t="str" cm="1">
         <f t="array" ref="G31">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D31,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D31,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D31,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -8880,13 +8390,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,И</v>
       </c>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C32" s="7">
@@ -8899,7 +8406,7 @@
       <c r="F32" s="7">
         <v>25</v>
       </c>
-      <c r="G32" s="41" t="str" cm="1">
+      <c r="G32" s="3" t="str" cm="1">
         <f t="array" ref="G32">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D32,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D32,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D32,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ё</v>
       </c>
@@ -8907,13 +8414,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁ</v>
       </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C33" s="7">
@@ -8926,7 +8430,7 @@
       <c r="F33" s="7">
         <v>26</v>
       </c>
-      <c r="G33" s="41" t="str" cm="1">
+      <c r="G33" s="3" t="str" cm="1">
         <f t="array" ref="G33">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D33,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D33,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D33,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>М</v>
       </c>
@@ -8934,13 +8438,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМ</v>
       </c>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C34" s="7">
@@ -8953,7 +8454,7 @@
       <c r="F34" s="7">
         <v>27</v>
       </c>
-      <c r="G34" s="41" t="str" cm="1">
+      <c r="G34" s="3" t="str" cm="1">
         <f t="array" ref="G34">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D34,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D34,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D34,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ы</v>
       </c>
@@ -8961,13 +8462,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ</v>
       </c>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C35" s="7">
@@ -8980,7 +8478,7 @@
       <c r="F35" s="7">
         <v>28</v>
       </c>
-      <c r="G35" s="41" t="str" cm="1">
+      <c r="G35" s="3" t="str" cm="1">
         <f t="array" ref="G35">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D35,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D35,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D35,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>2</v>
       </c>
@@ -8988,13 +8486,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ2</v>
       </c>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C36" s="7">
@@ -9007,7 +8502,7 @@
       <c r="F36" s="7">
         <v>29</v>
       </c>
-      <c r="G36" s="41" t="str" cm="1">
+      <c r="G36" s="3" t="str" cm="1">
         <f t="array" ref="G36">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D36,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D36,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D36,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -9015,13 +8510,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24</v>
       </c>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C37" s="7">
@@ -9034,7 +8526,7 @@
       <c r="F37" s="7">
         <v>30</v>
       </c>
-      <c r="G37" s="41" t="str" cm="1">
+      <c r="G37" s="3" t="str" cm="1">
         <f t="array" ref="G37">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D37,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D37,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D37,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Х</v>
       </c>
@@ -9042,13 +8534,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24Х</v>
       </c>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C38" s="7">
@@ -9061,7 +8550,7 @@
       <c r="F38" s="7">
         <v>31</v>
       </c>
-      <c r="G38" s="41" t="str" cm="1">
+      <c r="G38" s="3" t="str" cm="1">
         <f t="array" ref="G38">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D38,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D38,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D38,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -9069,13 +8558,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТ</v>
       </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C39" s="7">
@@ -9088,7 +8574,7 @@
       <c r="F39" s="7">
         <v>32</v>
       </c>
-      <c r="G39" s="41" t="str" cm="1">
+      <c r="G39" s="3" t="str" cm="1">
         <f t="array" ref="G39">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D39,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D39,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D39,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -9096,13 +8582,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТТ</v>
       </c>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C40" s="7">
@@ -9115,7 +8598,7 @@
       <c r="F40" s="7">
         <v>33</v>
       </c>
-      <c r="G40" s="41" t="str" cm="1">
+      <c r="G40" s="3" t="str" cm="1">
         <f t="array" ref="G40">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D40,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D40,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D40,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Е</v>
       </c>
@@ -9123,13 +8606,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТТЕ</v>
       </c>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C41" s="7">
@@ -9142,7 +8622,7 @@
       <c r="F41" s="7">
         <v>34</v>
       </c>
-      <c r="G41" s="41" t="str" cm="1">
+      <c r="G41" s="3" t="str" cm="1">
         <f t="array" ref="G41">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D41,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D41,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D41,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Э</v>
       </c>
@@ -9150,13 +8630,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТТЕЭ</v>
       </c>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C42" s="7">
@@ -9169,7 +8646,7 @@
       <c r="F42" s="7">
         <v>35</v>
       </c>
-      <c r="G42" s="41" t="str" cm="1">
+      <c r="G42" s="3" t="str" cm="1">
         <f t="array" ref="G42">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D42,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D42,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D42,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -9177,13 +8654,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТТЕЭД</v>
       </c>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C43" s="7">
@@ -9196,7 +8670,7 @@
       <c r="F43" s="7">
         <v>36</v>
       </c>
-      <c r="G43" s="41" t="str" cm="1">
+      <c r="G43" s="3" t="str" cm="1">
         <f t="array" ref="G43">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D43,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D43,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D43,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9204,13 +8678,10 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТТЕЭД </v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C44" s="7">
@@ -9223,7 +8694,7 @@
       <c r="F44" s="7">
         <v>37</v>
       </c>
-      <c r="G44" s="41" t="str" cm="1">
+      <c r="G44" s="3" t="str" cm="1">
         <f t="array" ref="G44">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D44,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D44,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D44,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -9231,13 +8702,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТТЕЭД 4</v>
       </c>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C45" s="7">
@@ -9250,7 +8718,7 @@
       <c r="F45" s="7">
         <v>38</v>
       </c>
-      <c r="G45" s="41" t="str" cm="1">
+      <c r="G45" s="3" t="str" cm="1">
         <f t="array" ref="G45">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D45,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D45,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D45,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ё</v>
       </c>
@@ -9258,13 +8726,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТТЕЭД 4Ё</v>
       </c>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C46" s="7">
@@ -9277,7 +8742,7 @@
       <c r="F46" s="7">
         <v>39</v>
       </c>
-      <c r="G46" s="41" t="str" cm="1">
+      <c r="G46" s="3" t="str" cm="1">
         <f t="array" ref="G46">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D46,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D46,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D46,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -9285,13 +8750,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТТЕЭД 4ЁД</v>
       </c>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C47" s="7">
@@ -9304,7 +8766,7 @@
       <c r="F47" s="7">
         <v>40</v>
       </c>
-      <c r="G47" s="41" t="str" cm="1">
+      <c r="G47" s="3" t="str" cm="1">
         <f t="array" ref="G47">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D47,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D47,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D47,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Р</v>
       </c>
@@ -9312,13 +8774,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТТЕЭД 4ЁДР</v>
       </c>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C48" s="7">
@@ -9331,7 +8790,7 @@
       <c r="F48" s="7">
         <v>41</v>
       </c>
-      <c r="G48" s="41" t="str" cm="1">
+      <c r="G48" s="3" t="str" cm="1">
         <f t="array" ref="G48">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D48,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D48,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D48,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>2</v>
       </c>
@@ -9339,13 +8798,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТТЕЭД 4ЁДР2</v>
       </c>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C49" s="7">
@@ -9358,7 +8814,7 @@
       <c r="F49" s="7">
         <v>42</v>
       </c>
-      <c r="G49" s="41" t="str" cm="1">
+      <c r="G49" s="3" t="str" cm="1">
         <f t="array" ref="G49">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D49,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D49,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D49,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -9366,13 +8822,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТТЕЭД 4ЁДР24</v>
       </c>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C50" s="7">
@@ -9385,7 +8838,7 @@
       <c r="F50" s="7">
         <v>43</v>
       </c>
-      <c r="G50" s="41" t="str" cm="1">
+      <c r="G50" s="3" t="str" cm="1">
         <f t="array" ref="G50">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D50,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D50,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D50,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ы</v>
       </c>
@@ -9393,13 +8846,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТТЕЭД 4ЁДР24Ы</v>
       </c>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C51" s="7">
@@ -9412,7 +8862,7 @@
       <c r="F51" s="7">
         <v>44</v>
       </c>
-      <c r="G51" s="41" t="str" cm="1">
+      <c r="G51" s="3" t="str" cm="1">
         <f t="array" ref="G51">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D51,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D51,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D51,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ц</v>
       </c>
@@ -9420,13 +8870,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТТЕЭД 4ЁДР24ЫЦ</v>
       </c>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C52" s="7">
@@ -9439,7 +8886,7 @@
       <c r="F52" s="7">
         <v>45</v>
       </c>
-      <c r="G52" s="41" t="str" cm="1">
+      <c r="G52" s="3" t="str" cm="1">
         <f t="array" ref="G52">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D52,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D52,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D52,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -9447,13 +8894,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТТЕЭД 4ЁДР24ЫЦТ</v>
       </c>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C53" s="7">
@@ -9466,7 +8910,7 @@
       <c r="F53" s="7">
         <v>46</v>
       </c>
-      <c r="G53" s="41" t="str" cm="1">
+      <c r="G53" s="3" t="str" cm="1">
         <f t="array" ref="G53">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D53,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D53,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D53,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -9474,13 +8918,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТТЕЭД 4ЁДР24ЫЦТ4</v>
       </c>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="43"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C54" s="7">
@@ -9493,7 +8934,7 @@
       <c r="F54" s="7">
         <v>47</v>
       </c>
-      <c r="G54" s="41" t="str" cm="1">
+      <c r="G54" s="3" t="str" cm="1">
         <f t="array" ref="G54">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D54,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D54,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D54,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>У</v>
       </c>
@@ -9501,13 +8942,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТТЕЭД 4ЁДР24ЫЦТ4У</v>
       </c>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
     </row>
     <row r="55" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C55" s="7">
@@ -9520,7 +8958,7 @@
       <c r="F55" s="7">
         <v>48</v>
       </c>
-      <c r="G55" s="41" t="str" cm="1">
+      <c r="G55" s="3" t="str" cm="1">
         <f t="array" ref="G55">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D55,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D55,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D55,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ф</v>
       </c>
@@ -9540,7 +8978,7 @@
       <c r="F56" s="7">
         <v>49</v>
       </c>
-      <c r="G56" s="41" t="str" cm="1">
+      <c r="G56" s="3" t="str" cm="1">
         <f t="array" ref="G56">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D56,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D56,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D56,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -9560,7 +8998,7 @@
       <c r="F57" s="7">
         <v>50</v>
       </c>
-      <c r="G57" s="41" t="str" cm="1">
+      <c r="G57" s="3" t="str" cm="1">
         <f t="array" ref="G57">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D57,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D57,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D57,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>О</v>
       </c>
@@ -9580,7 +9018,7 @@
       <c r="F58" s="7">
         <v>51</v>
       </c>
-      <c r="G58" s="41" t="str" cm="1">
+      <c r="G58" s="3" t="str" cm="1">
         <f t="array" ref="G58">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D58,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D58,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D58,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ц</v>
       </c>
@@ -9600,7 +9038,7 @@
       <c r="F59" s="7">
         <v>52</v>
       </c>
-      <c r="G59" s="41" t="str" cm="1">
+      <c r="G59" s="3" t="str" cm="1">
         <f t="array" ref="G59">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D59,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D59,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D59,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>М</v>
       </c>
@@ -9620,7 +9058,7 @@
       <c r="F60" s="7">
         <v>53</v>
       </c>
-      <c r="G60" s="41" t="str" cm="1">
+      <c r="G60" s="3" t="str" cm="1">
         <f t="array" ref="G60">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D60,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D60,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D60,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ы</v>
       </c>
@@ -9640,7 +9078,7 @@
       <c r="F61" s="7">
         <v>54</v>
       </c>
-      <c r="G61" s="41" t="str" cm="1">
+      <c r="G61" s="3" t="str" cm="1">
         <f t="array" ref="G61">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D61,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D61,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D61,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -9660,7 +9098,7 @@
       <c r="F62" s="7">
         <v>55</v>
       </c>
-      <c r="G62" s="41" t="str" cm="1">
+      <c r="G62" s="3" t="str" cm="1">
         <f t="array" ref="G62">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D62,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D62,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D62,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Х</v>
       </c>
@@ -9680,7 +9118,7 @@
       <c r="F63" s="7">
         <v>56</v>
       </c>
-      <c r="G63" s="41" t="str" cm="1">
+      <c r="G63" s="3" t="str" cm="1">
         <f t="array" ref="G63">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D63,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D63,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D63,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>О</v>
       </c>
@@ -9700,7 +9138,7 @@
       <c r="F64" s="7">
         <v>57</v>
       </c>
-      <c r="G64" s="41" t="str" cm="1">
+      <c r="G64" s="3" t="str" cm="1">
         <f t="array" ref="G64">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D64,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D64,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D64,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -9720,7 +9158,7 @@
       <c r="F65" s="7">
         <v>58</v>
       </c>
-      <c r="G65" s="41" t="str" cm="1">
+      <c r="G65" s="3" t="str" cm="1">
         <f t="array" ref="G65">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D65,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D65,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D65,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -9740,7 +9178,7 @@
       <c r="F66" s="7">
         <v>59</v>
       </c>
-      <c r="G66" s="41" t="str" cm="1">
+      <c r="G66" s="3" t="str" cm="1">
         <f t="array" ref="G66">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D66,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D66,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D66,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -9760,7 +9198,7 @@
       <c r="F67" s="7">
         <v>60</v>
       </c>
-      <c r="G67" s="41" t="str" cm="1">
+      <c r="G67" s="3" t="str" cm="1">
         <f t="array" ref="G67">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D67,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D67,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D67,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Л</v>
       </c>
@@ -9780,7 +9218,7 @@
       <c r="F68" s="7">
         <v>61</v>
       </c>
-      <c r="G68" s="41" t="str" cm="1">
+      <c r="G68" s="3" t="str" cm="1">
         <f t="array" ref="G68">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D68,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D68,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D68,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -9800,7 +9238,7 @@
       <c r="F69" s="7">
         <v>62</v>
       </c>
-      <c r="G69" s="41" t="str" cm="1">
+      <c r="G69" s="3" t="str" cm="1">
         <f t="array" ref="G69">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D69,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D69,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D69,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>З</v>
       </c>
@@ -9820,7 +9258,7 @@
       <c r="F70" s="7">
         <v>63</v>
       </c>
-      <c r="G70" s="41" t="str" cm="1">
+      <c r="G70" s="3" t="str" cm="1">
         <f t="array" ref="G70">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D70,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D70,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D70,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -9840,7 +9278,7 @@
       <c r="F71" s="7">
         <v>64</v>
       </c>
-      <c r="G71" s="41" t="str" cm="1">
+      <c r="G71" s="3" t="str" cm="1">
         <f t="array" ref="G71">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D71,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D71,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D71,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>С</v>
       </c>
@@ -9860,7 +9298,7 @@
       <c r="F72" s="7">
         <v>65</v>
       </c>
-      <c r="G72" s="41" t="str" cm="1">
+      <c r="G72" s="3" t="str" cm="1">
         <f t="array" ref="G72">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D72,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D72,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D72,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>М</v>
       </c>
@@ -9880,7 +9318,7 @@
       <c r="F73" s="7">
         <v>66</v>
       </c>
-      <c r="G73" s="41" t="str" cm="1">
+      <c r="G73" s="3" t="str" cm="1">
         <f t="array" ref="G73">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D73,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D73,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D73,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -9900,7 +9338,7 @@
       <c r="F74" s="7">
         <v>67</v>
       </c>
-      <c r="G74" s="41" t="str" cm="1">
+      <c r="G74" s="3" t="str" cm="1">
         <f t="array" ref="G74">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D74,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D74,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D74,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -9920,7 +9358,7 @@
       <c r="F75" s="7">
         <v>68</v>
       </c>
-      <c r="G75" s="41" t="str" cm="1">
+      <c r="G75" s="3" t="str" cm="1">
         <f t="array" ref="G75">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D75,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D75,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D75,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>С</v>
       </c>
@@ -9940,7 +9378,7 @@
       <c r="F76" s="7">
         <v>69</v>
       </c>
-      <c r="G76" s="41" t="str" cm="1">
+      <c r="G76" s="3" t="str" cm="1">
         <f t="array" ref="G76">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D76,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D76,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D76,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -9960,7 +9398,7 @@
       <c r="F77" s="7">
         <v>70</v>
       </c>
-      <c r="G77" s="41" t="str" cm="1">
+      <c r="G77" s="3" t="str" cm="1">
         <f t="array" ref="G77">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D77,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D77,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D77,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Р</v>
       </c>
@@ -9980,7 +9418,7 @@
       <c r="F78" s="7">
         <v>71</v>
       </c>
-      <c r="G78" s="41" t="str" cm="1">
+      <c r="G78" s="3" t="str" cm="1">
         <f t="array" ref="G78">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D78,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D78,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D78,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -10000,7 +9438,7 @@
       <c r="F79" s="7">
         <v>72</v>
       </c>
-      <c r="G79" s="41" t="str" cm="1">
+      <c r="G79" s="3" t="str" cm="1">
         <f t="array" ref="G79">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D79,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D79,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D79,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ф</v>
       </c>
@@ -10020,7 +9458,7 @@
       <c r="F80" s="7">
         <v>73</v>
       </c>
-      <c r="G80" s="41" t="str" cm="1">
+      <c r="G80" s="3" t="str" cm="1">
         <f t="array" ref="G80">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D80,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D80,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D80,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -10040,7 +9478,7 @@
       <c r="F81" s="7">
         <v>74</v>
       </c>
-      <c r="G81" s="41" t="str" cm="1">
+      <c r="G81" s="3" t="str" cm="1">
         <f t="array" ref="G81">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D81,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D81,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D81,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ы</v>
       </c>
@@ -10060,7 +9498,7 @@
       <c r="F82" s="7">
         <v>75</v>
       </c>
-      <c r="G82" s="41" t="str" cm="1">
+      <c r="G82" s="3" t="str" cm="1">
         <f t="array" ref="G82">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D82,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D82,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D82,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -10080,7 +9518,7 @@
       <c r="F83" s="7">
         <v>76</v>
       </c>
-      <c r="G83" s="41" t="str" cm="1">
+      <c r="G83" s="3" t="str" cm="1">
         <f t="array" ref="G83">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D83,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D83,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D83,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ц</v>
       </c>
@@ -10100,7 +9538,7 @@
       <c r="F84" s="7">
         <v>77</v>
       </c>
-      <c r="G84" s="41" t="str" cm="1">
+      <c r="G84" s="3" t="str" cm="1">
         <f t="array" ref="G84">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D84,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D84,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D84,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Я</v>
       </c>
@@ -10120,7 +9558,7 @@
       <c r="F85" s="7">
         <v>78</v>
       </c>
-      <c r="G85" s="41" t="str" cm="1">
+      <c r="G85" s="3" t="str" cm="1">
         <f t="array" ref="G85">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D85,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D85,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D85,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ф</v>
       </c>
@@ -10140,7 +9578,7 @@
       <c r="F86" s="7">
         <v>79</v>
       </c>
-      <c r="G86" s="41" t="str" cm="1">
+      <c r="G86" s="3" t="str" cm="1">
         <f t="array" ref="G86">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D86,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D86,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D86,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -10160,7 +9598,7 @@
       <c r="F87" s="7">
         <v>80</v>
       </c>
-      <c r="G87" s="41" t="str" cm="1">
+      <c r="G87" s="3" t="str" cm="1">
         <f t="array" ref="G87">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D87,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D87,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D87,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -10180,7 +9618,7 @@
       <c r="F88" s="7">
         <v>81</v>
       </c>
-      <c r="G88" s="41" t="str" cm="1">
+      <c r="G88" s="3" t="str" cm="1">
         <f t="array" ref="G88">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D88,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D88,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D88,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Е</v>
       </c>
@@ -10200,7 +9638,7 @@
       <c r="F89" s="7">
         <v>82</v>
       </c>
-      <c r="G89" s="41" t="str" cm="1">
+      <c r="G89" s="3" t="str" cm="1">
         <f t="array" ref="G89">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D89,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D89,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D89,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Я</v>
       </c>
@@ -10220,7 +9658,7 @@
       <c r="F90" s="7">
         <v>83</v>
       </c>
-      <c r="G90" s="41" t="str" cm="1">
+      <c r="G90" s="3" t="str" cm="1">
         <f t="array" ref="G90">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D90,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D90,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D90,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>П</v>
       </c>
@@ -10240,7 +9678,7 @@
       <c r="F91" s="7">
         <v>84</v>
       </c>
-      <c r="G91" s="41" t="str" cm="1">
+      <c r="G91" s="3" t="str" cm="1">
         <f t="array" ref="G91">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D91,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D91,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D91,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -10260,7 +9698,7 @@
       <c r="F92" s="7">
         <v>85</v>
       </c>
-      <c r="G92" s="41" t="str" cm="1">
+      <c r="G92" s="3" t="str" cm="1">
         <f t="array" ref="G92">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D92,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D92,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D92,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -10280,7 +9718,7 @@
       <c r="F93" s="7">
         <v>86</v>
       </c>
-      <c r="G93" s="41" t="str" cm="1">
+      <c r="G93" s="3" t="str" cm="1">
         <f t="array" ref="G93">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D93,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D93,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D93,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>У</v>
       </c>
@@ -10300,7 +9738,7 @@
       <c r="F94" s="7">
         <v>87</v>
       </c>
-      <c r="G94" s="41" t="str" cm="1">
+      <c r="G94" s="3" t="str" cm="1">
         <f t="array" ref="G94">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D94,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D94,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D94,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -10320,7 +9758,7 @@
       <c r="F95" s="7">
         <v>88</v>
       </c>
-      <c r="G95" s="41" t="str" cm="1">
+      <c r="G95" s="3" t="str" cm="1">
         <f t="array" ref="G95">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D95,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D95,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D95,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>П</v>
       </c>
@@ -10340,7 +9778,7 @@
       <c r="F96" s="7">
         <v>89</v>
       </c>
-      <c r="G96" s="41" t="str" cm="1">
+      <c r="G96" s="3" t="str" cm="1">
         <f t="array" ref="G96">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D96,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D96,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D96,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>С</v>
       </c>
@@ -10360,7 +9798,7 @@
       <c r="F97" s="7">
         <v>90</v>
       </c>
-      <c r="G97" s="41" t="str" cm="1">
+      <c r="G97" s="3" t="str" cm="1">
         <f t="array" ref="G97">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D97,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D97,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D97,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -10380,7 +9818,7 @@
       <c r="F98" s="7">
         <v>91</v>
       </c>
-      <c r="G98" s="41" t="str" cm="1">
+      <c r="G98" s="3" t="str" cm="1">
         <f t="array" ref="G98">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D98,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D98,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D98,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Х</v>
       </c>
@@ -10400,7 +9838,7 @@
       <c r="F99" s="7">
         <v>92</v>
       </c>
-      <c r="G99" s="41" t="str" cm="1">
+      <c r="G99" s="3" t="str" cm="1">
         <f t="array" ref="G99">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D99,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D99,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D99,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ц</v>
       </c>
@@ -10420,7 +9858,7 @@
       <c r="F100" s="7">
         <v>93</v>
       </c>
-      <c r="G100" s="41" t="str" cm="1">
+      <c r="G100" s="3" t="str" cm="1">
         <f t="array" ref="G100">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D100,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D100,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D100,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>,</v>
       </c>
@@ -10440,7 +9878,7 @@
       <c r="F101" s="7">
         <v>94</v>
       </c>
-      <c r="G101" s="41" t="str" cm="1">
+      <c r="G101" s="3" t="str" cm="1">
         <f t="array" ref="G101">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D101,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D101,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D101,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -10460,7 +9898,7 @@
       <c r="F102" s="7">
         <v>95</v>
       </c>
-      <c r="G102" s="41" t="str" cm="1">
+      <c r="G102" s="3" t="str" cm="1">
         <f t="array" ref="G102">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D102,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D102,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D102,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -10480,7 +9918,7 @@
       <c r="F103" s="7">
         <v>96</v>
       </c>
-      <c r="G103" s="41" t="str" cm="1">
+      <c r="G103" s="3" t="str" cm="1">
         <f t="array" ref="G103">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D103,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D103,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D103,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ё</v>
       </c>
@@ -10500,7 +9938,7 @@
       <c r="F104" s="7">
         <v>97</v>
       </c>
-      <c r="G104" s="41" t="str" cm="1">
+      <c r="G104" s="3" t="str" cm="1">
         <f t="array" ref="G104">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D104,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D104,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D104,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Я</v>
       </c>
@@ -10520,7 +9958,7 @@
       <c r="F105" s="7">
         <v>98</v>
       </c>
-      <c r="G105" s="41" t="str" cm="1">
+      <c r="G105" s="3" t="str" cm="1">
         <f t="array" ref="G105">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D105,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D105,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D105,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>У</v>
       </c>
@@ -10540,7 +9978,7 @@
       <c r="F106" s="7">
         <v>99</v>
       </c>
-      <c r="G106" s="41" t="str" cm="1">
+      <c r="G106" s="3" t="str" cm="1">
         <f t="array" ref="G106">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D106,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D106,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D106,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -10560,7 +9998,7 @@
       <c r="F107" s="7">
         <v>100</v>
       </c>
-      <c r="G107" s="41" t="str" cm="1">
+      <c r="G107" s="3" t="str" cm="1">
         <f t="array" ref="G107">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D107,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D107,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D107,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>П</v>
       </c>
@@ -10580,7 +10018,7 @@
       <c r="F108" s="7">
         <v>101</v>
       </c>
-      <c r="G108" s="41" t="str" cm="1">
+      <c r="G108" s="3" t="str" cm="1">
         <f t="array" ref="G108">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D108,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D108,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D108,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>С</v>
       </c>
@@ -10600,7 +10038,7 @@
       <c r="F109" s="7">
         <v>102</v>
       </c>
-      <c r="G109" s="41" t="str" cm="1">
+      <c r="G109" s="3" t="str" cm="1">
         <f t="array" ref="G109">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D109,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D109,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D109,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -10620,7 +10058,7 @@
       <c r="F110" s="7">
         <v>103</v>
       </c>
-      <c r="G110" s="41" t="str" cm="1">
+      <c r="G110" s="3" t="str" cm="1">
         <f t="array" ref="G110">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D110,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D110,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D110,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>С</v>
       </c>
@@ -10640,7 +10078,7 @@
       <c r="F111" s="7">
         <v>104</v>
       </c>
-      <c r="G111" s="41" t="str" cm="1">
+      <c r="G111" s="3" t="str" cm="1">
         <f t="array" ref="G111">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D111,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D111,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D111,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -10660,7 +10098,7 @@
       <c r="F112" s="7">
         <v>105</v>
       </c>
-      <c r="G112" s="41" t="str" cm="1">
+      <c r="G112" s="3" t="str" cm="1">
         <f t="array" ref="G112">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D112,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D112,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D112,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>2</v>
       </c>
@@ -10680,7 +10118,7 @@
       <c r="F113" s="7">
         <v>106</v>
       </c>
-      <c r="G113" s="41" t="str" cm="1">
+      <c r="G113" s="3" t="str" cm="1">
         <f t="array" ref="G113">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D113,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D113,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D113,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -10700,7 +10138,7 @@
       <c r="F114" s="7">
         <v>107</v>
       </c>
-      <c r="G114" s="41" t="str" cm="1">
+      <c r="G114" s="3" t="str" cm="1">
         <f t="array" ref="G114">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D114,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D114,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D114,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>З</v>
       </c>
@@ -10720,7 +10158,7 @@
       <c r="F115" s="7">
         <v>108</v>
       </c>
-      <c r="G115" s="41" t="str" cm="1">
+      <c r="G115" s="3" t="str" cm="1">
         <f t="array" ref="G115">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D115,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D115,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D115,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ф</v>
       </c>
@@ -10740,7 +10178,7 @@
       <c r="F116" s="7">
         <v>109</v>
       </c>
-      <c r="G116" s="41" t="str" cm="1">
+      <c r="G116" s="3" t="str" cm="1">
         <f t="array" ref="G116">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D116,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D116,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D116,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -10760,7 +10198,7 @@
       <c r="F117" s="7">
         <v>110</v>
       </c>
-      <c r="G117" s="41" t="str" cm="1">
+      <c r="G117" s="3" t="str" cm="1">
         <f t="array" ref="G117">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D117,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D117,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D117,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Л</v>
       </c>
@@ -10780,7 +10218,7 @@
       <c r="F118" s="7">
         <v>111</v>
       </c>
-      <c r="G118" s="41" t="str" cm="1">
+      <c r="G118" s="3" t="str" cm="1">
         <f t="array" ref="G118">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D118,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D118,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D118,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>З</v>
       </c>
@@ -10800,7 +10238,7 @@
       <c r="F119" s="7">
         <v>112</v>
       </c>
-      <c r="G119" s="41" t="str" cm="1">
+      <c r="G119" s="3" t="str" cm="1">
         <f t="array" ref="G119">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D119,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D119,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D119,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -10820,7 +10258,7 @@
       <c r="F120" s="7">
         <v>113</v>
       </c>
-      <c r="G120" s="41" t="str" cm="1">
+      <c r="G120" s="3" t="str" cm="1">
         <f t="array" ref="G120">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D120,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D120,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D120,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ё</v>
       </c>
@@ -10840,7 +10278,7 @@
       <c r="F121" s="7">
         <v>114</v>
       </c>
-      <c r="G121" s="41" t="str" cm="1">
+      <c r="G121" s="3" t="str" cm="1">
         <f t="array" ref="G121">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D121,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D121,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D121,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -10860,7 +10298,7 @@
       <c r="F122" s="7">
         <v>115</v>
       </c>
-      <c r="G122" s="41" t="str" cm="1">
+      <c r="G122" s="3" t="str" cm="1">
         <f t="array" ref="G122">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D122,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D122,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D122,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -10880,7 +10318,7 @@
       <c r="F123" s="7">
         <v>116</v>
       </c>
-      <c r="G123" s="41" t="str" cm="1">
+      <c r="G123" s="3" t="str" cm="1">
         <f t="array" ref="G123">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D123,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D123,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D123,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>С</v>
       </c>
@@ -10900,7 +10338,7 @@
       <c r="F124" s="7">
         <v>117</v>
       </c>
-      <c r="G124" s="41" t="str" cm="1">
+      <c r="G124" s="3" t="str" cm="1">
         <f t="array" ref="G124">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D124,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D124,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D124,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ц</v>
       </c>
@@ -10920,7 +10358,7 @@
       <c r="F125" s="7">
         <v>118</v>
       </c>
-      <c r="G125" s="41" t="str" cm="1">
+      <c r="G125" s="3" t="str" cm="1">
         <f t="array" ref="G125">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D125,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D125,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D125,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -10940,7 +10378,7 @@
       <c r="F126" s="7">
         <v>119</v>
       </c>
-      <c r="G126" s="41" t="str" cm="1">
+      <c r="G126" s="3" t="str" cm="1">
         <f t="array" ref="G126">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D126,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D126,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D126,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>С</v>
       </c>
@@ -10960,7 +10398,7 @@
       <c r="F127" s="7">
         <v>120</v>
       </c>
-      <c r="G127" s="41" t="str" cm="1">
+      <c r="G127" s="3" t="str" cm="1">
         <f t="array" ref="G127">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D127,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D127,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D127,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -10980,7 +10418,7 @@
       <c r="F128" s="7">
         <v>121</v>
       </c>
-      <c r="G128" s="41" t="str" cm="1">
+      <c r="G128" s="3" t="str" cm="1">
         <f t="array" ref="G128">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D128,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D128,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D128,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>З</v>
       </c>
@@ -11000,7 +10438,7 @@
       <c r="F129" s="7">
         <v>122</v>
       </c>
-      <c r="G129" s="41" t="str" cm="1">
+      <c r="G129" s="3" t="str" cm="1">
         <f t="array" ref="G129">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D129,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D129,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D129,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Р</v>
       </c>
@@ -11020,7 +10458,7 @@
       <c r="F130" s="7">
         <v>123</v>
       </c>
-      <c r="G130" s="41" t="str" cm="1">
+      <c r="G130" s="3" t="str" cm="1">
         <f t="array" ref="G130">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D130,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D130,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D130,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>М</v>
       </c>
@@ -11040,7 +10478,7 @@
       <c r="F131" s="7">
         <v>124</v>
       </c>
-      <c r="G131" s="41" t="str" cm="1">
+      <c r="G131" s="3" t="str" cm="1">
         <f t="array" ref="G131">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D131,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D131,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D131,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ц</v>
       </c>
@@ -11060,7 +10498,7 @@
       <c r="F132" s="7">
         <v>125</v>
       </c>
-      <c r="G132" s="41" t="str" cm="1">
+      <c r="G132" s="3" t="str" cm="1">
         <f t="array" ref="G132">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D132,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D132,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D132,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ф</v>
       </c>
@@ -11080,7 +10518,7 @@
       <c r="F133" s="7">
         <v>126</v>
       </c>
-      <c r="G133" s="41" t="str" cm="1">
+      <c r="G133" s="3" t="str" cm="1">
         <f t="array" ref="G133">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D133,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D133,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D133,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>М</v>
       </c>
@@ -11100,7 +10538,7 @@
       <c r="F134" s="7">
         <v>127</v>
       </c>
-      <c r="G134" s="41" t="str" cm="1">
+      <c r="G134" s="3" t="str" cm="1">
         <f t="array" ref="G134">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D134,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D134,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D134,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -11120,7 +10558,7 @@
       <c r="F135" s="7">
         <v>128</v>
       </c>
-      <c r="G135" s="41" t="str" cm="1">
+      <c r="G135" s="3" t="str" cm="1">
         <f t="array" ref="G135">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D135,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D135,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D135,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ё</v>
       </c>
@@ -11140,7 +10578,7 @@
       <c r="F136" s="7">
         <v>129</v>
       </c>
-      <c r="G136" s="41" t="str" cm="1">
+      <c r="G136" s="3" t="str" cm="1">
         <f t="array" ref="G136">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D136,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D136,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D136,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>М</v>
       </c>
@@ -11160,7 +10598,7 @@
       <c r="F137" s="7">
         <v>130</v>
       </c>
-      <c r="G137" s="41" t="str" cm="1">
+      <c r="G137" s="3" t="str" cm="1">
         <f t="array" ref="G137">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D137,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D137,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D137,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ы</v>
       </c>
@@ -11180,7 +10618,7 @@
       <c r="F138" s="7">
         <v>131</v>
       </c>
-      <c r="G138" s="41" t="str" cm="1">
+      <c r="G138" s="3" t="str" cm="1">
         <f t="array" ref="G138">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D138,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D138,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D138,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -11200,7 +10638,7 @@
       <c r="F139" s="7">
         <v>132</v>
       </c>
-      <c r="G139" s="41" t="str" cm="1">
+      <c r="G139" s="3" t="str" cm="1">
         <f t="array" ref="G139">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D139,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D139,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D139,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Г</v>
       </c>
@@ -11220,7 +10658,7 @@
       <c r="F140" s="7">
         <v>133</v>
       </c>
-      <c r="G140" s="41" t="str" cm="1">
+      <c r="G140" s="3" t="str" cm="1">
         <f t="array" ref="G140">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D140,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D140,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D140,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>7</v>
       </c>
@@ -11240,7 +10678,7 @@
       <c r="F141" s="7">
         <v>134</v>
       </c>
-      <c r="G141" s="41" t="str" cm="1">
+      <c r="G141" s="3" t="str" cm="1">
         <f t="array" ref="G141">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D141,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D141,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D141,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>3</v>
       </c>
@@ -11260,7 +10698,7 @@
       <c r="F142" s="7">
         <v>135</v>
       </c>
-      <c r="G142" s="41" t="str" cm="1">
+      <c r="G142" s="3" t="str" cm="1">
         <f t="array" ref="G142">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D142,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D142,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D142,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>5</v>
       </c>
@@ -11280,7 +10718,7 @@
       <c r="F143" s="7">
         <v>136</v>
       </c>
-      <c r="G143" s="41" t="str" cm="1">
+      <c r="G143" s="3" t="str" cm="1">
         <f t="array" ref="G143">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D143,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D143,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D143,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>6</v>
       </c>
@@ -11300,7 +10738,7 @@
       <c r="F144" s="7">
         <v>137</v>
       </c>
-      <c r="G144" s="41" t="str" cm="1">
+      <c r="G144" s="3" t="str" cm="1">
         <f t="array" ref="G144">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D144,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D144,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D144,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>3</v>
       </c>
@@ -11320,7 +10758,7 @@
       <c r="F145" s="7">
         <v>138</v>
       </c>
-      <c r="G145" s="41" t="str" cm="1">
+      <c r="G145" s="3" t="str" cm="1">
         <f t="array" ref="G145">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D145,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D145,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D145,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>6</v>
       </c>
@@ -11340,7 +10778,7 @@
       <c r="F146" s="7">
         <v>139</v>
       </c>
-      <c r="G146" s="41" t="str" cm="1">
+      <c r="G146" s="3" t="str" cm="1">
         <f t="array" ref="G146">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D146,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D146,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D146,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Г</v>
       </c>
@@ -11360,7 +10798,7 @@
       <c r="F147" s="7">
         <v>140</v>
       </c>
-      <c r="G147" s="41" t="str" cm="1">
+      <c r="G147" s="3" t="str" cm="1">
         <f t="array" ref="G147">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D147,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D147,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D147,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Г</v>
       </c>
@@ -11380,7 +10818,7 @@
       <c r="F148" s="7">
         <v>141</v>
       </c>
-      <c r="G148" s="41" t="str" cm="1">
+      <c r="G148" s="3" t="str" cm="1">
         <f t="array" ref="G148">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D148,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D148,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D148,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>6</v>
       </c>
@@ -11428,76 +10866,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="37" t="str">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44" t="str">
         <f>'Зашифровка сообщения инициатора'!H148</f>
         <v>ЧЁДКДИРЯН4МЖТФ,4ШИТЗТХ,ИЁМЫ24ХТТЕЭД 4ЁДР24ЫЦТ4УФДОЦМЫИХОТИ4ЛДЗДСМИ4СТРИФ4ЫИЦЯФИ4ЕЯПТ4УТПСТХЦ, 4ЁЯУТПСИСТ24ЗФТЛЗТЁ4ДСЦТС4ЗРМЦФМИЁМЫ4Г735636ГГ6</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39"/>
-      <c r="Y1" s="33" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="46"/>
+      <c r="Y1" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="40"/>
+      <c r="Z1" s="43"/>
       <c r="AA1" s="25">
         <f>LEN(C1)</f>
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="37" t="str">
+      <c r="B3" s="38"/>
+      <c r="C3" s="44" t="str">
         <f>H148</f>
         <v>УВАЖАЕМЫЙ ИГОРЬ ФЕОДОСЬЕВИЧ, СООБЩАЮ ВАМ, ЧТО ПРАКТИЧЕСКОЕ ЗАДАНИЕ НОМЕР ЧЕТЫРЕ БЫЛО ПОЛНОСТЬЮ ВЫПОЛНЕНО, ДРОЗДОВ АНТОН ДМИТРИЕВИЧ 03.12.2002</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="39"/>
-      <c r="Y3" s="33" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="46"/>
+      <c r="Y3" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="40"/>
+      <c r="Z3" s="43"/>
       <c r="AA3" s="25">
         <f>LEN(C3)</f>
         <v>141</v>
@@ -14350,7 +13788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA633074-5319-4E58-A5A9-E9F785B0F57D}">
   <dimension ref="A1:AA171"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
@@ -14368,75 +13806,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39"/>
-      <c r="Y1" s="32" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="46"/>
+      <c r="Y1" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="32"/>
+      <c r="Z1" s="38"/>
       <c r="AA1" s="25">
         <f>LEN(C1)</f>
         <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="48" t="str">
+      <c r="B3" s="38"/>
+      <c r="C3" s="25" t="str">
         <f>H166</f>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414ЕИЛРИФСТ4ФДЗ4СДЬИРЧ4ХТЦФЧЗСМЫИХЦЁЧ24СДЗИ Х,4СД4ИЖТ4ЗДП,СИНЬИИ4ЧХУИЬСТИ4М4ЁЛДМРТЁЯЖТЗСТИ4ФДЛЁМЦМИ344Х4ЧЁДКИСМИР4МЖТФ,4ШИТЗТХ,ИЁМЫ3</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="Y3" s="32" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="Y3" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="32"/>
+      <c r="Z3" s="38"/>
       <c r="AA3" s="25">
         <f>LEN(C3)</f>
         <v>159</v>
@@ -14453,7 +13891,7 @@
       <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="41" t="str" cm="1">
+      <c r="G8" s="3" t="str" cm="1">
         <f t="array" ref="G8">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D8,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D8,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D8,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ч</v>
       </c>
@@ -14461,13 +13899,6 @@
         <f>G8</f>
         <v>Ч</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C9" s="7">
@@ -14480,7 +13911,7 @@
       <c r="F9" s="7">
         <v>2</v>
       </c>
-      <c r="G9" s="41" t="str" cm="1">
+      <c r="G9" s="3" t="str" cm="1">
         <f t="array" ref="G9">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D9,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D9,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D9,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ё</v>
       </c>
@@ -14488,13 +13919,10 @@
         <f>H8&amp;G9</f>
         <v>ЧЁ</v>
       </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C10" s="7">
@@ -14507,7 +13935,7 @@
       <c r="F10" s="7">
         <v>3</v>
       </c>
-      <c r="G10" s="41" t="str" cm="1">
+      <c r="G10" s="3" t="str" cm="1">
         <f t="array" ref="G10">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D10,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D10,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D10,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -14515,13 +13943,10 @@
         <f t="shared" ref="H10:H73" si="1">H9&amp;G10</f>
         <v>ЧЁД</v>
       </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C11" s="7">
@@ -14534,7 +13959,7 @@
       <c r="F11" s="7">
         <v>4</v>
       </c>
-      <c r="G11" s="41" t="str" cm="1">
+      <c r="G11" s="3" t="str" cm="1">
         <f t="array" ref="G11">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D11,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D11,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D11,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>К</v>
       </c>
@@ -14542,13 +13967,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДК</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C12" s="7">
@@ -14561,7 +13983,7 @@
       <c r="F12" s="7">
         <v>5</v>
       </c>
-      <c r="G12" s="41" t="str" cm="1">
+      <c r="G12" s="3" t="str" cm="1">
         <f t="array" ref="G12">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D12,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D12,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D12,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -14569,13 +13991,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКД</v>
       </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C13" s="7">
@@ -14588,7 +14007,7 @@
       <c r="F13" s="7">
         <v>6</v>
       </c>
-      <c r="G13" s="41" t="str" cm="1">
+      <c r="G13" s="3" t="str" cm="1">
         <f t="array" ref="G13">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D13,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D13,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D13,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -14596,13 +14015,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИ</v>
       </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C14" s="7">
@@ -14615,7 +14031,7 @@
       <c r="F14" s="7">
         <v>7</v>
       </c>
-      <c r="G14" s="41" t="str" cm="1">
+      <c r="G14" s="3" t="str" cm="1">
         <f t="array" ref="G14">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D14,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D14,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D14,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Р</v>
       </c>
@@ -14623,13 +14039,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИР</v>
       </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C15" s="7">
@@ -14642,7 +14055,7 @@
       <c r="F15" s="7">
         <v>8</v>
       </c>
-      <c r="G15" s="41" t="str" cm="1">
+      <c r="G15" s="3" t="str" cm="1">
         <f t="array" ref="G15">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D15,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D15,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D15,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Я</v>
       </c>
@@ -14650,13 +14063,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯ</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C16" s="7">
@@ -14669,7 +14079,7 @@
       <c r="F16" s="7">
         <v>9</v>
       </c>
-      <c r="G16" s="41" t="str" cm="1">
+      <c r="G16" s="3" t="str" cm="1">
         <f t="array" ref="G16">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D16,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D16,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D16,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Н</v>
       </c>
@@ -14677,13 +14087,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C17" s="7">
@@ -14696,7 +14103,7 @@
       <c r="F17" s="7">
         <v>10</v>
       </c>
-      <c r="G17" s="41" t="str" cm="1">
+      <c r="G17" s="3" t="str" cm="1">
         <f t="array" ref="G17">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D17,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D17,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D17,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -14704,13 +14111,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C18" s="7">
@@ -14723,7 +14127,7 @@
       <c r="F18" s="7">
         <v>11</v>
       </c>
-      <c r="G18" s="41" t="str" cm="1">
+      <c r="G18" s="3" t="str" cm="1">
         <f t="array" ref="G18">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D18,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D18,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D18,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -14731,13 +14135,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4Д</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C19" s="7">
@@ -14750,7 +14151,7 @@
       <c r="F19" s="7">
         <v>12</v>
       </c>
-      <c r="G19" s="41" t="str" cm="1">
+      <c r="G19" s="3" t="str" cm="1">
         <f t="array" ref="G19">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D19,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D19,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D19,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>С</v>
       </c>
@@ -14758,13 +14159,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДС</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C20" s="7">
@@ -14777,7 +14175,7 @@
       <c r="F20" s="7">
         <v>13</v>
       </c>
-      <c r="G20" s="41" t="str" cm="1">
+      <c r="G20" s="3" t="str" cm="1">
         <f t="array" ref="G20">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D20,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D20,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D20,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ц</v>
       </c>
@@ -14785,13 +14183,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦ</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C21" s="7">
@@ -14804,7 +14199,7 @@
       <c r="F21" s="7">
         <v>14</v>
       </c>
-      <c r="G21" s="41" t="str" cm="1">
+      <c r="G21" s="3" t="str" cm="1">
         <f t="array" ref="G21">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D21,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D21,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D21,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -14812,13 +14207,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТ</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C22" s="7">
@@ -14831,7 +14223,7 @@
       <c r="F22" s="7">
         <v>15</v>
       </c>
-      <c r="G22" s="41" t="str" cm="1">
+      <c r="G22" s="3" t="str" cm="1">
         <f t="array" ref="G22">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D22,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D22,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D22,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>С</v>
       </c>
@@ -14839,13 +14231,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C23" s="7">
@@ -14858,7 +14247,7 @@
       <c r="F23" s="7">
         <v>16</v>
       </c>
-      <c r="G23" s="41" t="str" cm="1">
+      <c r="G23" s="3" t="str" cm="1">
         <f t="array" ref="G23">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D23,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D23,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D23,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -14866,13 +14255,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C24" s="7">
@@ -14885,7 +14271,7 @@
       <c r="F24" s="7">
         <v>17</v>
       </c>
-      <c r="G24" s="41" t="str" cm="1">
+      <c r="G24" s="3" t="str" cm="1">
         <f t="array" ref="G24">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D24,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D24,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D24,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>З</v>
       </c>
@@ -14893,13 +14279,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4З</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C25" s="7">
@@ -14912,7 +14295,7 @@
       <c r="F25" s="7">
         <v>18</v>
       </c>
-      <c r="G25" s="41" t="str" cm="1">
+      <c r="G25" s="3" t="str" cm="1">
         <f t="array" ref="G25">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D25,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D25,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D25,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Р</v>
       </c>
@@ -14920,13 +14303,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗР</v>
       </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C26" s="7">
@@ -14939,7 +14319,7 @@
       <c r="F26" s="7">
         <v>19</v>
       </c>
-      <c r="G26" s="41" t="str" cm="1">
+      <c r="G26" s="3" t="str" cm="1">
         <f t="array" ref="G26">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D26,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D26,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D26,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>М</v>
       </c>
@@ -14947,13 +14327,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМ</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C27" s="7">
@@ -14966,7 +14343,7 @@
       <c r="F27" s="7">
         <v>20</v>
       </c>
-      <c r="G27" s="41" t="str" cm="1">
+      <c r="G27" s="3" t="str" cm="1">
         <f t="array" ref="G27">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D27,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D27,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D27,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ц</v>
       </c>
@@ -14974,13 +14351,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦ</v>
       </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C28" s="7">
@@ -14993,7 +14367,7 @@
       <c r="F28" s="7">
         <v>21</v>
       </c>
-      <c r="G28" s="41" t="str" cm="1">
+      <c r="G28" s="3" t="str" cm="1">
         <f t="array" ref="G28">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D28,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D28,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D28,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ф</v>
       </c>
@@ -15001,13 +14375,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФ</v>
       </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C29" s="7">
@@ -15020,7 +14391,7 @@
       <c r="F29" s="7">
         <v>22</v>
       </c>
-      <c r="G29" s="41" t="str" cm="1">
+      <c r="G29" s="3" t="str" cm="1">
         <f t="array" ref="G29">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D29,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D29,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D29,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>М</v>
       </c>
@@ -15028,13 +14399,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМ</v>
       </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C30" s="7">
@@ -15047,7 +14415,7 @@
       <c r="F30" s="7">
         <v>23</v>
       </c>
-      <c r="G30" s="41" t="str" cm="1">
+      <c r="G30" s="3" t="str" cm="1">
         <f t="array" ref="G30">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D30,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D30,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D30,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -15055,13 +14423,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИ</v>
       </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C31" s="7">
@@ -15074,7 +14439,7 @@
       <c r="F31" s="7">
         <v>24</v>
       </c>
-      <c r="G31" s="41" t="str" cm="1">
+      <c r="G31" s="3" t="str" cm="1">
         <f t="array" ref="G31">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D31,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D31,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D31,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ё</v>
       </c>
@@ -15082,26 +14447,23 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁ</v>
       </c>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C32" s="7">
         <v>25</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f t="shared" ref="D32:D78" si="2">MID(C$1,C32,1)</f>
+        <f t="shared" ref="D32:D51" si="2">MID(C$1,C32,1)</f>
         <v>И</v>
       </c>
       <c r="F32" s="7">
         <v>25</v>
       </c>
-      <c r="G32" s="41" t="str" cm="1">
+      <c r="G32" s="3" t="str" cm="1">
         <f t="array" ref="G32">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D32,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D32,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D32,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>М</v>
       </c>
@@ -15109,13 +14471,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМ</v>
       </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C33" s="7">
@@ -15128,7 +14487,7 @@
       <c r="F33" s="7">
         <v>26</v>
       </c>
-      <c r="G33" s="41" t="str" cm="1">
+      <c r="G33" s="3" t="str" cm="1">
         <f t="array" ref="G33">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D33,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D33,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D33,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ы</v>
       </c>
@@ -15136,13 +14495,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ</v>
       </c>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C34" s="7">
@@ -15155,7 +14511,7 @@
       <c r="F34" s="7">
         <v>27</v>
       </c>
-      <c r="G34" s="41" t="str" cm="1">
+      <c r="G34" s="3" t="str" cm="1">
         <f t="array" ref="G34">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D34,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D34,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D34,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>2</v>
       </c>
@@ -15163,13 +14519,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2</v>
       </c>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C35" s="7">
@@ -15182,7 +14535,7 @@
       <c r="F35" s="7">
         <v>28</v>
       </c>
-      <c r="G35" s="41" t="str" cm="1">
+      <c r="G35" s="3" t="str" cm="1">
         <f t="array" ref="G35">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D35,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D35,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D35,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -15190,13 +14543,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ24</v>
       </c>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C36" s="7">
@@ -15209,7 +14559,7 @@
       <c r="F36" s="7">
         <v>29</v>
       </c>
-      <c r="G36" s="41" t="str" cm="1">
+      <c r="G36" s="3" t="str" cm="1">
         <f t="array" ref="G36">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D36,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D36,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D36,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>1</v>
       </c>
@@ -15217,13 +14567,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ241</v>
       </c>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C37" s="7">
@@ -15236,7 +14583,7 @@
       <c r="F37" s="7">
         <v>30</v>
       </c>
-      <c r="G37" s="41" t="str" cm="1">
+      <c r="G37" s="3" t="str" cm="1">
         <f t="array" ref="G37">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D37,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D37,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D37,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -15244,13 +14591,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414</v>
       </c>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C38" s="7">
@@ -15263,7 +14607,7 @@
       <c r="F38" s="7">
         <v>31</v>
       </c>
-      <c r="G38" s="41" t="str" cm="1">
+      <c r="G38" s="3" t="str" cm="1">
         <f t="array" ref="G38">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D38,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D38,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D38,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Е</v>
       </c>
@@ -15271,13 +14615,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414Е</v>
       </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C39" s="7">
@@ -15290,7 +14631,7 @@
       <c r="F39" s="7">
         <v>32</v>
       </c>
-      <c r="G39" s="41" t="str" cm="1">
+      <c r="G39" s="3" t="str" cm="1">
         <f t="array" ref="G39">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D39,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D39,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D39,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -15298,13 +14639,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414ЕИ</v>
       </c>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C40" s="7">
@@ -15317,7 +14655,7 @@
       <c r="F40" s="7">
         <v>33</v>
       </c>
-      <c r="G40" s="41" t="str" cm="1">
+      <c r="G40" s="3" t="str" cm="1">
         <f t="array" ref="G40">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D40,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D40,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D40,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Л</v>
       </c>
@@ -15325,13 +14663,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414ЕИЛ</v>
       </c>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C41" s="7">
@@ -15344,7 +14679,7 @@
       <c r="F41" s="7">
         <v>34</v>
       </c>
-      <c r="G41" s="41" t="str" cm="1">
+      <c r="G41" s="3" t="str" cm="1">
         <f t="array" ref="G41">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D41,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D41,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D41,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Р</v>
       </c>
@@ -15352,13 +14687,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414ЕИЛР</v>
       </c>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C42" s="7">
@@ -15371,7 +14703,7 @@
       <c r="F42" s="7">
         <v>35</v>
       </c>
-      <c r="G42" s="41" t="str" cm="1">
+      <c r="G42" s="3" t="str" cm="1">
         <f t="array" ref="G42">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D42,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D42,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D42,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -15379,13 +14711,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414ЕИЛРИ</v>
       </c>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C43" s="7">
@@ -15398,7 +14727,7 @@
       <c r="F43" s="7">
         <v>36</v>
       </c>
-      <c r="G43" s="41" t="str" cm="1">
+      <c r="G43" s="3" t="str" cm="1">
         <f t="array" ref="G43">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D43,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D43,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D43,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ф</v>
       </c>
@@ -15406,13 +14735,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414ЕИЛРИФ</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C44" s="7">
@@ -15425,7 +14751,7 @@
       <c r="F44" s="7">
         <v>37</v>
       </c>
-      <c r="G44" s="41" t="str" cm="1">
+      <c r="G44" s="3" t="str" cm="1">
         <f t="array" ref="G44">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D44,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D44,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D44,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>С</v>
       </c>
@@ -15433,13 +14759,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414ЕИЛРИФС</v>
       </c>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C45" s="7">
@@ -15452,7 +14775,7 @@
       <c r="F45" s="7">
         <v>38</v>
       </c>
-      <c r="G45" s="41" t="str" cm="1">
+      <c r="G45" s="3" t="str" cm="1">
         <f t="array" ref="G45">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D45,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D45,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D45,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -15460,13 +14783,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414ЕИЛРИФСТ</v>
       </c>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C46" s="7">
@@ -15479,7 +14799,7 @@
       <c r="F46" s="7">
         <v>39</v>
       </c>
-      <c r="G46" s="41" t="str" cm="1">
+      <c r="G46" s="3" t="str" cm="1">
         <f t="array" ref="G46">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D46,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D46,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D46,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -15487,13 +14807,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414ЕИЛРИФСТ4</v>
       </c>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C47" s="7">
@@ -15506,7 +14823,7 @@
       <c r="F47" s="7">
         <v>40</v>
       </c>
-      <c r="G47" s="41" t="str" cm="1">
+      <c r="G47" s="3" t="str" cm="1">
         <f t="array" ref="G47">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D47,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D47,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D47,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ф</v>
       </c>
@@ -15514,13 +14831,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414ЕИЛРИФСТ4Ф</v>
       </c>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C48" s="7">
@@ -15533,7 +14847,7 @@
       <c r="F48" s="7">
         <v>41</v>
       </c>
-      <c r="G48" s="41" t="str" cm="1">
+      <c r="G48" s="3" t="str" cm="1">
         <f t="array" ref="G48">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D48,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D48,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D48,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -15541,13 +14855,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414ЕИЛРИФСТ4ФД</v>
       </c>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C49" s="7">
@@ -15560,7 +14871,7 @@
       <c r="F49" s="7">
         <v>42</v>
       </c>
-      <c r="G49" s="41" t="str" cm="1">
+      <c r="G49" s="3" t="str" cm="1">
         <f t="array" ref="G49">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D49,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D49,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D49,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>З</v>
       </c>
@@ -15568,13 +14879,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414ЕИЛРИФСТ4ФДЗ</v>
       </c>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C50" s="7">
@@ -15587,7 +14895,7 @@
       <c r="F50" s="7">
         <v>43</v>
       </c>
-      <c r="G50" s="41" t="str" cm="1">
+      <c r="G50" s="3" t="str" cm="1">
         <f t="array" ref="G50">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D50,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D50,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D50,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -15595,13 +14903,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414ЕИЛРИФСТ4ФДЗ4</v>
       </c>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C51" s="7">
@@ -15614,7 +14919,7 @@
       <c r="F51" s="7">
         <v>44</v>
       </c>
-      <c r="G51" s="41" t="str" cm="1">
+      <c r="G51" s="3" t="str" cm="1">
         <f t="array" ref="G51">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D51,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D51,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D51,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>С</v>
       </c>
@@ -15622,13 +14927,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414ЕИЛРИФСТ4ФДЗ4С</v>
       </c>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C52" s="7">
@@ -15641,7 +14943,7 @@
       <c r="F52" s="7">
         <v>45</v>
       </c>
-      <c r="G52" s="41" t="str" cm="1">
+      <c r="G52" s="3" t="str" cm="1">
         <f t="array" ref="G52">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D52,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D52,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D52,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -15649,26 +14951,23 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414ЕИЛРИФСТ4ФДЗ4СД</v>
       </c>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C53" s="7">
         <v>46</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f t="shared" ref="D53:D99" si="3">MID(C$1,C53,1)</f>
+        <f t="shared" ref="D53:D68" si="3">MID(C$1,C53,1)</f>
         <v>Ш</v>
       </c>
       <c r="F53" s="7">
         <v>46</v>
       </c>
-      <c r="G53" s="41" t="str" cm="1">
+      <c r="G53" s="3" t="str" cm="1">
         <f t="array" ref="G53">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D53,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D53,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D53,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ь</v>
       </c>
@@ -15676,13 +14975,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414ЕИЛРИФСТ4ФДЗ4СДЬ</v>
       </c>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="43"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C54" s="7">
@@ -15695,7 +14991,7 @@
       <c r="F54" s="7">
         <v>47</v>
       </c>
-      <c r="G54" s="41" t="str" cm="1">
+      <c r="G54" s="3" t="str" cm="1">
         <f t="array" ref="G54">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D54,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D54,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D54,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -15703,13 +14999,10 @@
         <f t="shared" si="1"/>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414ЕИЛРИФСТ4ФДЗ4СДЬИ</v>
       </c>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
     </row>
     <row r="55" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C55" s="7">
@@ -15722,7 +15015,7 @@
       <c r="F55" s="7">
         <v>48</v>
       </c>
-      <c r="G55" s="41" t="str" cm="1">
+      <c r="G55" s="3" t="str" cm="1">
         <f t="array" ref="G55">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D55,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D55,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D55,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Р</v>
       </c>
@@ -15742,7 +15035,7 @@
       <c r="F56" s="7">
         <v>49</v>
       </c>
-      <c r="G56" s="41" t="str" cm="1">
+      <c r="G56" s="3" t="str" cm="1">
         <f t="array" ref="G56">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D56,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D56,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D56,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ч</v>
       </c>
@@ -15762,7 +15055,7 @@
       <c r="F57" s="7">
         <v>50</v>
       </c>
-      <c r="G57" s="41" t="str" cm="1">
+      <c r="G57" s="3" t="str" cm="1">
         <f t="array" ref="G57">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D57,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D57,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D57,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -15782,7 +15075,7 @@
       <c r="F58" s="7">
         <v>51</v>
       </c>
-      <c r="G58" s="41" t="str" cm="1">
+      <c r="G58" s="3" t="str" cm="1">
         <f t="array" ref="G58">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D58,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D58,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D58,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Х</v>
       </c>
@@ -15802,7 +15095,7 @@
       <c r="F59" s="7">
         <v>52</v>
       </c>
-      <c r="G59" s="41" t="str" cm="1">
+      <c r="G59" s="3" t="str" cm="1">
         <f t="array" ref="G59">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D59,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D59,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D59,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -15822,7 +15115,7 @@
       <c r="F60" s="7">
         <v>53</v>
       </c>
-      <c r="G60" s="41" t="str" cm="1">
+      <c r="G60" s="3" t="str" cm="1">
         <f t="array" ref="G60">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D60,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D60,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D60,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ц</v>
       </c>
@@ -15842,7 +15135,7 @@
       <c r="F61" s="7">
         <v>54</v>
       </c>
-      <c r="G61" s="41" t="str" cm="1">
+      <c r="G61" s="3" t="str" cm="1">
         <f t="array" ref="G61">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D61,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D61,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D61,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ф</v>
       </c>
@@ -15862,7 +15155,7 @@
       <c r="F62" s="7">
         <v>55</v>
       </c>
-      <c r="G62" s="41" t="str" cm="1">
+      <c r="G62" s="3" t="str" cm="1">
         <f t="array" ref="G62">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D62,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D62,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D62,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ч</v>
       </c>
@@ -15882,7 +15175,7 @@
       <c r="F63" s="7">
         <v>56</v>
       </c>
-      <c r="G63" s="41" t="str" cm="1">
+      <c r="G63" s="3" t="str" cm="1">
         <f t="array" ref="G63">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D63,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D63,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D63,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>З</v>
       </c>
@@ -15902,7 +15195,7 @@
       <c r="F64" s="7">
         <v>57</v>
       </c>
-      <c r="G64" s="41" t="str" cm="1">
+      <c r="G64" s="3" t="str" cm="1">
         <f t="array" ref="G64">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D64,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D64,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D64,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>С</v>
       </c>
@@ -15922,7 +15215,7 @@
       <c r="F65" s="7">
         <v>58</v>
       </c>
-      <c r="G65" s="41" t="str" cm="1">
+      <c r="G65" s="3" t="str" cm="1">
         <f t="array" ref="G65">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D65,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D65,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D65,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>М</v>
       </c>
@@ -15942,7 +15235,7 @@
       <c r="F66" s="7">
         <v>59</v>
       </c>
-      <c r="G66" s="41" t="str" cm="1">
+      <c r="G66" s="3" t="str" cm="1">
         <f t="array" ref="G66">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D66,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D66,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D66,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ы</v>
       </c>
@@ -15962,7 +15255,7 @@
       <c r="F67" s="7">
         <v>60</v>
       </c>
-      <c r="G67" s="41" t="str" cm="1">
+      <c r="G67" s="3" t="str" cm="1">
         <f t="array" ref="G67">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D67,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D67,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D67,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -15982,7 +15275,7 @@
       <c r="F68" s="7">
         <v>61</v>
       </c>
-      <c r="G68" s="41" t="str" cm="1">
+      <c r="G68" s="3" t="str" cm="1">
         <f t="array" ref="G68">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D68,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D68,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D68,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Х</v>
       </c>
@@ -16002,7 +15295,7 @@
       <c r="F69" s="7">
         <v>62</v>
       </c>
-      <c r="G69" s="41" t="str" cm="1">
+      <c r="G69" s="3" t="str" cm="1">
         <f t="array" ref="G69">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D69,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D69,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D69,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ц</v>
       </c>
@@ -16016,13 +15309,13 @@
         <v>63</v>
       </c>
       <c r="D70" s="3" t="str">
-        <f t="shared" ref="D70:D116" si="4">MID(C$1,C70,1)</f>
+        <f t="shared" ref="D70:D79" si="4">MID(C$1,C70,1)</f>
         <v>В</v>
       </c>
       <c r="F70" s="7">
         <v>63</v>
       </c>
-      <c r="G70" s="41" t="str" cm="1">
+      <c r="G70" s="3" t="str" cm="1">
         <f t="array" ref="G70">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D70,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D70,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D70,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ё</v>
       </c>
@@ -16042,7 +15335,7 @@
       <c r="F71" s="7">
         <v>64</v>
       </c>
-      <c r="G71" s="41" t="str" cm="1">
+      <c r="G71" s="3" t="str" cm="1">
         <f t="array" ref="G71">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D71,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D71,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D71,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ч</v>
       </c>
@@ -16062,7 +15355,7 @@
       <c r="F72" s="7">
         <v>65</v>
       </c>
-      <c r="G72" s="41" t="str" cm="1">
+      <c r="G72" s="3" t="str" cm="1">
         <f t="array" ref="G72">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D72,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D72,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D72,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>2</v>
       </c>
@@ -16082,7 +15375,7 @@
       <c r="F73" s="7">
         <v>66</v>
       </c>
-      <c r="G73" s="41" t="str" cm="1">
+      <c r="G73" s="3" t="str" cm="1">
         <f t="array" ref="G73">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D73,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D73,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D73,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -16102,7 +15395,7 @@
       <c r="F74" s="7">
         <v>67</v>
       </c>
-      <c r="G74" s="41" t="str" cm="1">
+      <c r="G74" s="3" t="str" cm="1">
         <f t="array" ref="G74">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D74,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D74,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D74,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>С</v>
       </c>
@@ -16122,7 +15415,7 @@
       <c r="F75" s="7">
         <v>68</v>
       </c>
-      <c r="G75" s="41" t="str" cm="1">
+      <c r="G75" s="3" t="str" cm="1">
         <f t="array" ref="G75">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D75,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D75,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D75,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -16142,7 +15435,7 @@
       <c r="F76" s="7">
         <v>69</v>
       </c>
-      <c r="G76" s="41" t="str" cm="1">
+      <c r="G76" s="3" t="str" cm="1">
         <f t="array" ref="G76">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D76,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D76,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D76,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>З</v>
       </c>
@@ -16162,7 +15455,7 @@
       <c r="F77" s="7">
         <v>70</v>
       </c>
-      <c r="G77" s="41" t="str" cm="1">
+      <c r="G77" s="3" t="str" cm="1">
         <f t="array" ref="G77">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D77,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D77,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D77,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -16182,7 +15475,7 @@
       <c r="F78" s="7">
         <v>71</v>
       </c>
-      <c r="G78" s="41" t="str" cm="1">
+      <c r="G78" s="3" t="str" cm="1">
         <f t="array" ref="G78">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D78,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D78,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D78,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -16202,7 +15495,7 @@
       <c r="F79" s="7">
         <v>72</v>
       </c>
-      <c r="G79" s="41" t="str" cm="1">
+      <c r="G79" s="3" t="str" cm="1">
         <f t="array" ref="G79">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D79,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D79,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D79,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Х</v>
       </c>
@@ -16222,7 +15515,7 @@
       <c r="F80" s="7">
         <v>73</v>
       </c>
-      <c r="G80" s="41" t="str" cm="1">
+      <c r="G80" s="3" t="str" cm="1">
         <f t="array" ref="G80">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D80,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D80,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D80,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>,</v>
       </c>
@@ -16236,13 +15529,13 @@
         <v>74</v>
       </c>
       <c r="D81" s="3" t="str">
-        <f t="shared" ref="D81:D107" si="6">MID(C$1,C81,1)</f>
+        <f t="shared" ref="D81:D102" si="6">MID(C$1,C81,1)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F81" s="7">
         <v>74</v>
       </c>
-      <c r="G81" s="41" t="str" cm="1">
+      <c r="G81" s="3" t="str" cm="1">
         <f t="array" ref="G81">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D81,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D81,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D81,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -16262,7 +15555,7 @@
       <c r="F82" s="7">
         <v>75</v>
       </c>
-      <c r="G82" s="41" t="str" cm="1">
+      <c r="G82" s="3" t="str" cm="1">
         <f t="array" ref="G82">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D82,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D82,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D82,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>С</v>
       </c>
@@ -16282,7 +15575,7 @@
       <c r="F83" s="7">
         <v>76</v>
       </c>
-      <c r="G83" s="41" t="str" cm="1">
+      <c r="G83" s="3" t="str" cm="1">
         <f t="array" ref="G83">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D83,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D83,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D83,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -16302,7 +15595,7 @@
       <c r="F84" s="7">
         <v>77</v>
       </c>
-      <c r="G84" s="41" t="str" cm="1">
+      <c r="G84" s="3" t="str" cm="1">
         <f t="array" ref="G84">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D84,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D84,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D84,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -16322,7 +15615,7 @@
       <c r="F85" s="7">
         <v>78</v>
       </c>
-      <c r="G85" s="41" t="str" cm="1">
+      <c r="G85" s="3" t="str" cm="1">
         <f t="array" ref="G85">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D85,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D85,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D85,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -16342,7 +15635,7 @@
       <c r="F86" s="7">
         <v>79</v>
       </c>
-      <c r="G86" s="41" t="str" cm="1">
+      <c r="G86" s="3" t="str" cm="1">
         <f t="array" ref="G86">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D86,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D86,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D86,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ж</v>
       </c>
@@ -16362,7 +15655,7 @@
       <c r="F87" s="7">
         <v>80</v>
       </c>
-      <c r="G87" s="41" t="str" cm="1">
+      <c r="G87" s="3" t="str" cm="1">
         <f t="array" ref="G87">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D87,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D87,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D87,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -16382,7 +15675,7 @@
       <c r="F88" s="7">
         <v>81</v>
       </c>
-      <c r="G88" s="41" t="str" cm="1">
+      <c r="G88" s="3" t="str" cm="1">
         <f t="array" ref="G88">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D88,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D88,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D88,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -16402,7 +15695,7 @@
       <c r="F89" s="7">
         <v>82</v>
       </c>
-      <c r="G89" s="41" t="str" cm="1">
+      <c r="G89" s="3" t="str" cm="1">
         <f t="array" ref="G89">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D89,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D89,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D89,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>З</v>
       </c>
@@ -16422,7 +15715,7 @@
       <c r="F90" s="7">
         <v>83</v>
       </c>
-      <c r="G90" s="41" t="str" cm="1">
+      <c r="G90" s="3" t="str" cm="1">
         <f t="array" ref="G90">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D90,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D90,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D90,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -16442,7 +15735,7 @@
       <c r="F91" s="7">
         <v>84</v>
       </c>
-      <c r="G91" s="41" t="str" cm="1">
+      <c r="G91" s="3" t="str" cm="1">
         <f t="array" ref="G91">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D91,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D91,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D91,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>П</v>
       </c>
@@ -16462,7 +15755,7 @@
       <c r="F92" s="7">
         <v>85</v>
       </c>
-      <c r="G92" s="41" t="str" cm="1">
+      <c r="G92" s="3" t="str" cm="1">
         <f t="array" ref="G92">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D92,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D92,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D92,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>,</v>
       </c>
@@ -16482,7 +15775,7 @@
       <c r="F93" s="7">
         <v>86</v>
       </c>
-      <c r="G93" s="41" t="str" cm="1">
+      <c r="G93" s="3" t="str" cm="1">
         <f t="array" ref="G93">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D93,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D93,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D93,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>С</v>
       </c>
@@ -16502,7 +15795,7 @@
       <c r="F94" s="7">
         <v>87</v>
       </c>
-      <c r="G94" s="41" t="str" cm="1">
+      <c r="G94" s="3" t="str" cm="1">
         <f t="array" ref="G94">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D94,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D94,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D94,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -16522,7 +15815,7 @@
       <c r="F95" s="7">
         <v>88</v>
       </c>
-      <c r="G95" s="41" t="str" cm="1">
+      <c r="G95" s="3" t="str" cm="1">
         <f t="array" ref="G95">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D95,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D95,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D95,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Н</v>
       </c>
@@ -16542,7 +15835,7 @@
       <c r="F96" s="7">
         <v>89</v>
       </c>
-      <c r="G96" s="41" t="str" cm="1">
+      <c r="G96" s="3" t="str" cm="1">
         <f t="array" ref="G96">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D96,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D96,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D96,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ь</v>
       </c>
@@ -16562,7 +15855,7 @@
       <c r="F97" s="7">
         <v>90</v>
       </c>
-      <c r="G97" s="41" t="str" cm="1">
+      <c r="G97" s="3" t="str" cm="1">
         <f t="array" ref="G97">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D97,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D97,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D97,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -16582,7 +15875,7 @@
       <c r="F98" s="7">
         <v>91</v>
       </c>
-      <c r="G98" s="41" t="str" cm="1">
+      <c r="G98" s="3" t="str" cm="1">
         <f t="array" ref="G98">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D98,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D98,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D98,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -16602,7 +15895,7 @@
       <c r="F99" s="7">
         <v>92</v>
       </c>
-      <c r="G99" s="41" t="str" cm="1">
+      <c r="G99" s="3" t="str" cm="1">
         <f t="array" ref="G99">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D99,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D99,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D99,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -16622,7 +15915,7 @@
       <c r="F100" s="7">
         <v>93</v>
       </c>
-      <c r="G100" s="41" t="str" cm="1">
+      <c r="G100" s="3" t="str" cm="1">
         <f t="array" ref="G100">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D100,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D100,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D100,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ч</v>
       </c>
@@ -16642,7 +15935,7 @@
       <c r="F101" s="7">
         <v>94</v>
       </c>
-      <c r="G101" s="41" t="str" cm="1">
+      <c r="G101" s="3" t="str" cm="1">
         <f t="array" ref="G101">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D101,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D101,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D101,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Х</v>
       </c>
@@ -16662,7 +15955,7 @@
       <c r="F102" s="7">
         <v>95</v>
       </c>
-      <c r="G102" s="41" t="str" cm="1">
+      <c r="G102" s="3" t="str" cm="1">
         <f t="array" ref="G102">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D102,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D102,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D102,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>У</v>
       </c>
@@ -16682,7 +15975,7 @@
       <c r="F103" s="7">
         <v>96</v>
       </c>
-      <c r="G103" s="41" t="str" cm="1">
+      <c r="G103" s="3" t="str" cm="1">
         <f t="array" ref="G103">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D103,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D103,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D103,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -16696,13 +15989,13 @@
         <v>97</v>
       </c>
       <c r="D104" s="3" t="str">
-        <f t="shared" ref="D104:D130" si="7">MID(C$1,C104,1)</f>
+        <f t="shared" ref="D104:D107" si="7">MID(C$1,C104,1)</f>
         <v>Ш</v>
       </c>
       <c r="F104" s="7">
         <v>97</v>
       </c>
-      <c r="G104" s="41" t="str" cm="1">
+      <c r="G104" s="3" t="str" cm="1">
         <f t="array" ref="G104">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D104,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D104,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D104,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ь</v>
       </c>
@@ -16722,7 +16015,7 @@
       <c r="F105" s="7">
         <v>98</v>
       </c>
-      <c r="G105" s="41" t="str" cm="1">
+      <c r="G105" s="3" t="str" cm="1">
         <f t="array" ref="G105">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D105,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D105,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D105,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>С</v>
       </c>
@@ -16742,7 +16035,7 @@
       <c r="F106" s="7">
         <v>99</v>
       </c>
-      <c r="G106" s="41" t="str" cm="1">
+      <c r="G106" s="3" t="str" cm="1">
         <f t="array" ref="G106">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D106,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D106,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D106,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -16762,7 +16055,7 @@
       <c r="F107" s="7">
         <v>100</v>
       </c>
-      <c r="G107" s="41" t="str" cm="1">
+      <c r="G107" s="3" t="str" cm="1">
         <f t="array" ref="G107">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D107,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D107,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D107,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -16782,7 +16075,7 @@
       <c r="F108" s="7">
         <v>101</v>
       </c>
-      <c r="G108" s="41" t="str" cm="1">
+      <c r="G108" s="3" t="str" cm="1">
         <f t="array" ref="G108">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D108,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D108,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D108,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -16802,7 +16095,7 @@
       <c r="F109" s="7">
         <v>102</v>
       </c>
-      <c r="G109" s="41" t="str" cm="1">
+      <c r="G109" s="3" t="str" cm="1">
         <f t="array" ref="G109">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D109,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D109,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D109,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>М</v>
       </c>
@@ -16822,7 +16115,7 @@
       <c r="F110" s="7">
         <v>103</v>
       </c>
-      <c r="G110" s="41" t="str" cm="1">
+      <c r="G110" s="3" t="str" cm="1">
         <f t="array" ref="G110">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D110,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D110,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D110,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -16842,7 +16135,7 @@
       <c r="F111" s="7">
         <v>104</v>
       </c>
-      <c r="G111" s="41" t="str" cm="1">
+      <c r="G111" s="3" t="str" cm="1">
         <f t="array" ref="G111">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D111,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D111,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D111,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ё</v>
       </c>
@@ -16862,7 +16155,7 @@
       <c r="F112" s="7">
         <v>105</v>
       </c>
-      <c r="G112" s="41" t="str" cm="1">
+      <c r="G112" s="3" t="str" cm="1">
         <f t="array" ref="G112">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D112,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D112,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D112,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Л</v>
       </c>
@@ -16882,7 +16175,7 @@
       <c r="F113" s="7">
         <v>106</v>
       </c>
-      <c r="G113" s="41" t="str" cm="1">
+      <c r="G113" s="3" t="str" cm="1">
         <f t="array" ref="G113">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D113,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D113,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D113,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -16902,7 +16195,7 @@
       <c r="F114" s="7">
         <v>107</v>
       </c>
-      <c r="G114" s="41" t="str" cm="1">
+      <c r="G114" s="3" t="str" cm="1">
         <f t="array" ref="G114">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D114,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D114,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D114,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>М</v>
       </c>
@@ -16922,7 +16215,7 @@
       <c r="F115" s="7">
         <v>108</v>
       </c>
-      <c r="G115" s="41" t="str" cm="1">
+      <c r="G115" s="3" t="str" cm="1">
         <f t="array" ref="G115">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D115,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D115,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D115,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Р</v>
       </c>
@@ -16942,7 +16235,7 @@
       <c r="F116" s="7">
         <v>109</v>
       </c>
-      <c r="G116" s="41" t="str" cm="1">
+      <c r="G116" s="3" t="str" cm="1">
         <f t="array" ref="G116">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D116,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D116,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D116,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -16962,7 +16255,7 @@
       <c r="F117" s="7">
         <v>110</v>
       </c>
-      <c r="G117" s="41" t="str" cm="1">
+      <c r="G117" s="3" t="str" cm="1">
         <f t="array" ref="G117">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D117,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D117,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D117,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ё</v>
       </c>
@@ -16982,7 +16275,7 @@
       <c r="F118" s="7">
         <v>111</v>
       </c>
-      <c r="G118" s="41" t="str" cm="1">
+      <c r="G118" s="3" t="str" cm="1">
         <f t="array" ref="G118">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D118,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D118,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D118,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Я</v>
       </c>
@@ -17002,7 +16295,7 @@
       <c r="F119" s="7">
         <v>112</v>
       </c>
-      <c r="G119" s="41" t="str" cm="1">
+      <c r="G119" s="3" t="str" cm="1">
         <f t="array" ref="G119">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D119,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D119,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D119,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ж</v>
       </c>
@@ -17022,7 +16315,7 @@
       <c r="F120" s="7">
         <v>113</v>
       </c>
-      <c r="G120" s="41" t="str" cm="1">
+      <c r="G120" s="3" t="str" cm="1">
         <f t="array" ref="G120">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D120,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D120,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D120,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -17042,7 +16335,7 @@
       <c r="F121" s="7">
         <v>114</v>
       </c>
-      <c r="G121" s="41" t="str" cm="1">
+      <c r="G121" s="3" t="str" cm="1">
         <f t="array" ref="G121">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D121,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D121,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D121,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>З</v>
       </c>
@@ -17062,7 +16355,7 @@
       <c r="F122" s="7">
         <v>115</v>
       </c>
-      <c r="G122" s="41" t="str" cm="1">
+      <c r="G122" s="3" t="str" cm="1">
         <f t="array" ref="G122">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D122,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D122,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D122,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>С</v>
       </c>
@@ -17082,7 +16375,7 @@
       <c r="F123" s="7">
         <v>116</v>
       </c>
-      <c r="G123" s="41" t="str" cm="1">
+      <c r="G123" s="3" t="str" cm="1">
         <f t="array" ref="G123">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D123,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D123,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D123,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -17102,7 +16395,7 @@
       <c r="F124" s="7">
         <v>117</v>
       </c>
-      <c r="G124" s="41" t="str" cm="1">
+      <c r="G124" s="3" t="str" cm="1">
         <f t="array" ref="G124">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D124,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D124,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D124,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -17122,7 +16415,7 @@
       <c r="F125" s="7">
         <v>118</v>
       </c>
-      <c r="G125" s="41" t="str" cm="1">
+      <c r="G125" s="3" t="str" cm="1">
         <f t="array" ref="G125">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D125,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D125,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D125,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -17142,7 +16435,7 @@
       <c r="F126" s="7">
         <v>119</v>
       </c>
-      <c r="G126" s="41" t="str" cm="1">
+      <c r="G126" s="3" t="str" cm="1">
         <f t="array" ref="G126">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D126,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D126,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D126,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ф</v>
       </c>
@@ -17162,7 +16455,7 @@
       <c r="F127" s="7">
         <v>120</v>
       </c>
-      <c r="G127" s="41" t="str" cm="1">
+      <c r="G127" s="3" t="str" cm="1">
         <f t="array" ref="G127">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D127,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D127,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D127,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -17182,7 +16475,7 @@
       <c r="F128" s="7">
         <v>121</v>
       </c>
-      <c r="G128" s="41" t="str" cm="1">
+      <c r="G128" s="3" t="str" cm="1">
         <f t="array" ref="G128">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D128,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D128,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D128,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Л</v>
       </c>
@@ -17202,7 +16495,7 @@
       <c r="F129" s="7">
         <v>122</v>
       </c>
-      <c r="G129" s="41" t="str" cm="1">
+      <c r="G129" s="3" t="str" cm="1">
         <f t="array" ref="G129">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D129,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D129,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D129,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ё</v>
       </c>
@@ -17222,7 +16515,7 @@
       <c r="F130" s="7">
         <v>123</v>
       </c>
-      <c r="G130" s="41" t="str" cm="1">
+      <c r="G130" s="3" t="str" cm="1">
         <f t="array" ref="G130">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D130,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D130,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D130,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>М</v>
       </c>
@@ -17242,7 +16535,7 @@
       <c r="F131" s="7">
         <v>124</v>
       </c>
-      <c r="G131" s="41" t="str" cm="1">
+      <c r="G131" s="3" t="str" cm="1">
         <f t="array" ref="G131">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D131,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D131,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D131,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ц</v>
       </c>
@@ -17262,7 +16555,7 @@
       <c r="F132" s="7">
         <v>125</v>
       </c>
-      <c r="G132" s="41" t="str" cm="1">
+      <c r="G132" s="3" t="str" cm="1">
         <f t="array" ref="G132">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D132,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D132,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D132,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>М</v>
       </c>
@@ -17282,7 +16575,7 @@
       <c r="F133" s="7">
         <v>126</v>
       </c>
-      <c r="G133" s="41" t="str" cm="1">
+      <c r="G133" s="3" t="str" cm="1">
         <f t="array" ref="G133">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D133,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D133,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D133,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -17302,7 +16595,7 @@
       <c r="F134" s="7">
         <v>127</v>
       </c>
-      <c r="G134" s="41" t="str" cm="1">
+      <c r="G134" s="3" t="str" cm="1">
         <f t="array" ref="G134">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D134,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D134,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D134,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>3</v>
       </c>
@@ -17322,7 +16615,7 @@
       <c r="F135" s="7">
         <v>128</v>
       </c>
-      <c r="G135" s="41" t="str" cm="1">
+      <c r="G135" s="3" t="str" cm="1">
         <f t="array" ref="G135">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D135,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D135,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D135,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -17342,7 +16635,7 @@
       <c r="F136" s="7">
         <v>129</v>
       </c>
-      <c r="G136" s="41" t="str" cm="1">
+      <c r="G136" s="3" t="str" cm="1">
         <f t="array" ref="G136">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D136,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D136,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D136,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -17362,7 +16655,7 @@
       <c r="F137" s="7">
         <v>130</v>
       </c>
-      <c r="G137" s="41" t="str" cm="1">
+      <c r="G137" s="3" t="str" cm="1">
         <f t="array" ref="G137">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D137,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D137,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D137,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Х</v>
       </c>
@@ -17382,7 +16675,7 @@
       <c r="F138" s="7">
         <v>131</v>
       </c>
-      <c r="G138" s="41" t="str" cm="1">
+      <c r="G138" s="3" t="str" cm="1">
         <f t="array" ref="G138">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D138,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D138,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D138,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -17402,7 +16695,7 @@
       <c r="F139" s="7">
         <v>132</v>
       </c>
-      <c r="G139" s="41" t="str" cm="1">
+      <c r="G139" s="3" t="str" cm="1">
         <f t="array" ref="G139">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D139,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D139,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D139,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ч</v>
       </c>
@@ -17422,7 +16715,7 @@
       <c r="F140" s="7">
         <v>133</v>
       </c>
-      <c r="G140" s="41" t="str" cm="1">
+      <c r="G140" s="3" t="str" cm="1">
         <f t="array" ref="G140">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D140,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D140,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D140,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ё</v>
       </c>
@@ -17442,7 +16735,7 @@
       <c r="F141" s="7">
         <v>134</v>
       </c>
-      <c r="G141" s="41" t="str" cm="1">
+      <c r="G141" s="3" t="str" cm="1">
         <f t="array" ref="G141">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D141,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D141,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D141,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Д</v>
       </c>
@@ -17462,7 +16755,7 @@
       <c r="F142" s="7">
         <v>135</v>
       </c>
-      <c r="G142" s="41" t="str" cm="1">
+      <c r="G142" s="3" t="str" cm="1">
         <f t="array" ref="G142">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D142,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D142,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D142,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>К</v>
       </c>
@@ -17482,7 +16775,7 @@
       <c r="F143" s="7">
         <v>136</v>
       </c>
-      <c r="G143" s="41" t="str" cm="1">
+      <c r="G143" s="3" t="str" cm="1">
         <f t="array" ref="G143">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D143,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D143,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D143,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -17502,7 +16795,7 @@
       <c r="F144" s="7">
         <v>137</v>
       </c>
-      <c r="G144" s="41" t="str" cm="1">
+      <c r="G144" s="3" t="str" cm="1">
         <f t="array" ref="G144">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D144,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D144,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D144,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>С</v>
       </c>
@@ -17522,7 +16815,7 @@
       <c r="F145" s="7">
         <v>138</v>
       </c>
-      <c r="G145" s="41" t="str" cm="1">
+      <c r="G145" s="3" t="str" cm="1">
         <f t="array" ref="G145">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D145,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D145,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D145,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>М</v>
       </c>
@@ -17542,7 +16835,7 @@
       <c r="F146" s="7">
         <v>139</v>
       </c>
-      <c r="G146" s="41" t="str" cm="1">
+      <c r="G146" s="3" t="str" cm="1">
         <f t="array" ref="G146">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D146,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D146,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D146,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -17562,7 +16855,7 @@
       <c r="F147" s="7">
         <v>140</v>
       </c>
-      <c r="G147" s="41" t="str" cm="1">
+      <c r="G147" s="3" t="str" cm="1">
         <f t="array" ref="G147">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D147,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D147,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D147,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Р</v>
       </c>
@@ -17582,7 +16875,7 @@
       <c r="F148" s="7">
         <v>141</v>
       </c>
-      <c r="G148" s="41" t="str" cm="1">
+      <c r="G148" s="3" t="str" cm="1">
         <f t="array" ref="G148">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D148,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D148,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D148,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -17602,7 +16895,7 @@
       <c r="F149" s="7">
         <v>142</v>
       </c>
-      <c r="G149" s="41" t="str" cm="1">
+      <c r="G149" s="3" t="str" cm="1">
         <f t="array" ref="G149">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D149,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D149,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D149,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>М</v>
       </c>
@@ -17622,7 +16915,7 @@
       <c r="F150" s="7">
         <v>143</v>
       </c>
-      <c r="G150" s="41" t="str" cm="1">
+      <c r="G150" s="3" t="str" cm="1">
         <f t="array" ref="G150">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D150,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D150,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D150,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ж</v>
       </c>
@@ -17642,7 +16935,7 @@
       <c r="F151" s="7">
         <v>144</v>
       </c>
-      <c r="G151" s="41" t="str" cm="1">
+      <c r="G151" s="3" t="str" cm="1">
         <f t="array" ref="G151">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D151,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D151,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D151,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -17662,7 +16955,7 @@
       <c r="F152" s="7">
         <v>145</v>
       </c>
-      <c r="G152" s="41" t="str" cm="1">
+      <c r="G152" s="3" t="str" cm="1">
         <f t="array" ref="G152">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D152,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D152,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D152,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ф</v>
       </c>
@@ -17682,7 +16975,7 @@
       <c r="F153" s="7">
         <v>146</v>
       </c>
-      <c r="G153" s="41" t="str" cm="1">
+      <c r="G153" s="3" t="str" cm="1">
         <f t="array" ref="G153">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D153,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D153,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D153,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>,</v>
       </c>
@@ -17702,7 +16995,7 @@
       <c r="F154" s="7">
         <v>147</v>
       </c>
-      <c r="G154" s="41" t="str" cm="1">
+      <c r="G154" s="3" t="str" cm="1">
         <f t="array" ref="G154">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D154,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D154,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D154,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>4</v>
       </c>
@@ -17722,7 +17015,7 @@
       <c r="F155" s="7">
         <v>148</v>
       </c>
-      <c r="G155" s="41" t="str" cm="1">
+      <c r="G155" s="3" t="str" cm="1">
         <f t="array" ref="G155">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D155,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D155,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D155,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ш</v>
       </c>
@@ -17742,7 +17035,7 @@
       <c r="F156" s="7">
         <v>149</v>
       </c>
-      <c r="G156" s="41" t="str" cm="1">
+      <c r="G156" s="3" t="str" cm="1">
         <f t="array" ref="G156">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D156,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D156,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D156,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -17762,7 +17055,7 @@
       <c r="F157" s="7">
         <v>150</v>
       </c>
-      <c r="G157" s="41" t="str" cm="1">
+      <c r="G157" s="3" t="str" cm="1">
         <f t="array" ref="G157">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D157,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D157,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D157,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -17782,7 +17075,7 @@
       <c r="F158" s="7">
         <v>151</v>
       </c>
-      <c r="G158" s="41" t="str" cm="1">
+      <c r="G158" s="3" t="str" cm="1">
         <f t="array" ref="G158">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D158,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D158,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D158,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>З</v>
       </c>
@@ -17802,7 +17095,7 @@
       <c r="F159" s="7">
         <v>152</v>
       </c>
-      <c r="G159" s="41" t="str" cm="1">
+      <c r="G159" s="3" t="str" cm="1">
         <f t="array" ref="G159">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D159,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D159,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D159,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Т</v>
       </c>
@@ -17816,13 +17109,13 @@
         <v>153</v>
       </c>
       <c r="D160" s="3" t="str">
-        <f t="shared" ref="D160:D171" si="12">MID(C$1,C160,1)</f>
+        <f t="shared" ref="D160:D166" si="12">MID(C$1,C160,1)</f>
         <v>С</v>
       </c>
       <c r="F160" s="7">
         <v>153</v>
       </c>
-      <c r="G160" s="41" t="str" cm="1">
+      <c r="G160" s="3" t="str" cm="1">
         <f t="array" ref="G160">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D160,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D160,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D160,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Х</v>
       </c>
@@ -17842,7 +17135,7 @@
       <c r="F161" s="7">
         <v>154</v>
       </c>
-      <c r="G161" s="41" t="str" cm="1">
+      <c r="G161" s="3" t="str" cm="1">
         <f t="array" ref="G161">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D161,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D161,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D161,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>,</v>
       </c>
@@ -17862,7 +17155,7 @@
       <c r="F162" s="7">
         <v>155</v>
       </c>
-      <c r="G162" s="41" t="str" cm="1">
+      <c r="G162" s="3" t="str" cm="1">
         <f t="array" ref="G162">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D162,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D162,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D162,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>И</v>
       </c>
@@ -17882,7 +17175,7 @@
       <c r="F163" s="7">
         <v>156</v>
       </c>
-      <c r="G163" s="41" t="str" cm="1">
+      <c r="G163" s="3" t="str" cm="1">
         <f t="array" ref="G163">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D163,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D163,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D163,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ё</v>
       </c>
@@ -17902,7 +17195,7 @@
       <c r="F164" s="7">
         <v>157</v>
       </c>
-      <c r="G164" s="41" t="str" cm="1">
+      <c r="G164" s="3" t="str" cm="1">
         <f t="array" ref="G164">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D164,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D164,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D164,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>М</v>
       </c>
@@ -17922,7 +17215,7 @@
       <c r="F165" s="7">
         <v>158</v>
       </c>
-      <c r="G165" s="41" t="str" cm="1">
+      <c r="G165" s="3" t="str" cm="1">
         <f t="array" ref="G165">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D165,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D165,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D165,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>Ы</v>
       </c>
@@ -17942,7 +17235,7 @@
       <c r="F166" s="7">
         <v>159</v>
       </c>
-      <c r="G166" s="41" t="str" cm="1">
+      <c r="G166" s="3" t="str" cm="1">
         <f t="array" ref="G166">INDEX('Исх. данные'!$B$2:$B$47,IF(MATCH(D166,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2&gt;46,MATCH(D166,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2-46,MATCH(D166,'Исх. данные'!$B$2:$B$47,0)+'Исх. данные'!$D$2))</f>
         <v>3</v>
       </c>
@@ -17952,24 +17245,24 @@
       </c>
     </row>
     <row r="167" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C167" s="43"/>
-      <c r="D167" s="43"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
     </row>
     <row r="168" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C168" s="43"/>
-      <c r="D168" s="43"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
     </row>
     <row r="169" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C169" s="43"/>
-      <c r="D169" s="43"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
     </row>
     <row r="170" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C170" s="43"/>
-      <c r="D170" s="43"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
     </row>
     <row r="171" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C171" s="43"/>
-      <c r="D171" s="43"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -17988,7 +17281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C338743A-8E8C-455B-AFE9-60345AD196A6}">
   <dimension ref="A1:AA166"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A130" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
@@ -18005,76 +17298,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="37" t="str">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44" t="str">
         <f>'Зашифровка сообщения ответчика'!H166</f>
         <v>ЧЁДКДИРЯН4ДСЦТС4ЗРМЦФМИЁМЫ2414ЕИЛРИФСТ4ФДЗ4СДЬИРЧ4ХТЦФЧЗСМЫИХЦЁЧ24СДЗИ Х,4СД4ИЖТ4ЗДП,СИНЬИИ4ЧХУИЬСТИ4М4ЁЛДМРТЁЯЖТЗСТИ4ФДЛЁМЦМИ344Х4ЧЁДКИСМИР4МЖТФ,4ШИТЗТХ,ИЁМЫ3</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39"/>
-      <c r="Y1" s="33" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="46"/>
+      <c r="Y1" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="40"/>
+      <c r="Z1" s="43"/>
       <c r="AA1" s="25">
         <f>LEN(C1)</f>
         <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="37" t="str">
+      <c r="B3" s="38"/>
+      <c r="C3" s="44" t="str">
         <f>H166</f>
         <v>УВАЖАЕМЫЙ АНТОН ДМИТРИЕВИЧ, Я БЕЗМЕРНО РАД НАШЕМУ СОТРУДНИЧЕСТВУ, НАДЕЮСЬ НА ЕГО ДАЛЬНЕЙШЕЕ УСПЕШНОЕ И ВЗАИМОВЫГОДНОЕ РАЗВИТИЕ.  С УВАЖЕНИЕМ ИГОРЬ ФЕОДОСЬЕВИЧ.</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="39"/>
-      <c r="Y3" s="33" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="46"/>
+      <c r="Y3" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="40"/>
+      <c r="Z3" s="43"/>
       <c r="AA3" s="25">
         <f>LEN(C3)</f>
         <v>159</v>

--- a/20230306_TKI-342_KMZI_Pz4_MSHZ_DrozdovAD.xlsx
+++ b/20230306_TKI-342_KMZI_Pz4_MSHZ_DrozdovAD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Desktop\rep\repository_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A0E21F-9009-4310-A5CB-AC56CCA35801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DA907B-A8EA-4910-9EFB-8BC658834359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{D673441F-1821-4FDA-B968-CF0A8E3E469F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D673441F-1821-4FDA-B968-CF0A8E3E469F}"/>
   </bookViews>
   <sheets>
     <sheet name="Исх. данные" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Частотность!$F$3:$F$48</definedName>
+    <definedName name="ЗашТекст">'Зашифровка сообщения инициатора'!$C$3</definedName>
+    <definedName name="ИсхТекст">'Зашифровка сообщения инициатора'!$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -599,7 +601,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -673,9 +675,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,6 +695,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -723,7 +725,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -839,7 +854,61 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1150,6 +1219,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
         <c:axId val="2124879440"/>
         <c:axId val="2124879856"/>
       </c:barChart>
@@ -1175,7 +1245,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1223,45 +1293,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.00000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="2124879440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1408,7 +1445,61 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1419,10 +1510,10 @@
                   <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>О</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Е</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>О</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>А</c:v>
@@ -1440,118 +1531,118 @@
                   <c:v>Р</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Т</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Д</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Т</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>С</c:v>
+                  <c:v>Ч</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>М</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Ч</c:v>
+                  <c:v>С</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>Ы</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>,</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Л</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>П</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Ь</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>.</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Б</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>З</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>К</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Ю</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Г</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Ж</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Й</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>У</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Ь</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Ы</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>З</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>,</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Л</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>П</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Г</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>.</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Б</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Й</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Ж</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
+                  <c:v>Ф</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Щ</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Ё</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Х</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Ц</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>Ш</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>Ю</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>К</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Ф</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="43">
+                  <c:v>Ъ</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Э</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>Я</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Щ</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Х</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Ц</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Э</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>Ё</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>Ъ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1563,109 +1654,109 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>0.12</c:v>
+                  <c:v>0.11347517730496454</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11347517730496454</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09</c:v>
+                  <c:v>7.8014184397163122E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3333333333333339E-2</c:v>
+                  <c:v>5.6737588652482268E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06</c:v>
+                  <c:v>4.9645390070921988E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.06</c:v>
+                  <c:v>4.9645390070921988E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6666666666666669E-2</c:v>
+                  <c:v>4.2553191489361701E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.04</c:v>
+                  <c:v>4.2553191489361701E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.04</c:v>
+                  <c:v>4.2553191489361701E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6666666666666667E-2</c:v>
+                  <c:v>3.5460992907801421E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3333333333333333E-2</c:v>
+                  <c:v>3.5460992907801421E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3333333333333333E-2</c:v>
+                  <c:v>2.8368794326241134E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>2.8368794326241134E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3333333333333334E-2</c:v>
+                  <c:v>2.8368794326241134E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3333333333333334E-2</c:v>
+                  <c:v>2.1276595744680851E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.02</c:v>
+                  <c:v>2.1276595744680851E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6666666666666666E-2</c:v>
+                  <c:v>2.1276595744680851E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6666666666666666E-2</c:v>
+                  <c:v>2.1276595744680851E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3333333333333334E-2</c:v>
+                  <c:v>2.1276595744680851E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3333333333333334E-2</c:v>
+                  <c:v>2.1276595744680851E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3333333333333334E-2</c:v>
+                  <c:v>1.4184397163120567E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3333333333333334E-2</c:v>
+                  <c:v>1.4184397163120567E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.01</c:v>
+                  <c:v>1.4184397163120567E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.01</c:v>
+                  <c:v>1.4184397163120567E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.01</c:v>
+                  <c:v>1.4184397163120567E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.01</c:v>
+                  <c:v>7.0921985815602835E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.01</c:v>
+                  <c:v>7.0921985815602835E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.01</c:v>
+                  <c:v>7.0921985815602835E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.01</c:v>
+                  <c:v>7.0921985815602835E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.6666666666666671E-3</c:v>
+                  <c:v>7.0921985815602835E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.6666666666666671E-3</c:v>
+                  <c:v>7.0921985815602835E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>7.0921985815602835E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>7.0921985815602835E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -1719,6 +1810,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
         <c:axId val="2124879440"/>
         <c:axId val="2124879856"/>
       </c:barChart>
@@ -1744,7 +1836,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1792,45 +1884,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.00000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="2124879440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1977,7 +2036,61 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1988,136 +2101,136 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>Т</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>И</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Т</c:v>
+                  <c:v>Д</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Д</c:v>
+                  <c:v>М</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>М</c:v>
+                  <c:v>С</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>С</c:v>
+                  <c:v>Ё</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Ё</c:v>
+                  <c:v>Ф</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Ф</c:v>
+                  <c:v>Ц</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>З</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Ц</c:v>
+                  <c:v>Ы</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Р</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Х</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Р</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>Ы</c:v>
+                  <c:v>Я</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Ч</c:v>
+                  <c:v>,</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>,</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Я</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Г</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>П</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>У</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Е</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>Л</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>П</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>У</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
+                  <c:v>О</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>Ж</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Е</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Н</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>К</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>Н</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Ч</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Ш</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Э</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>.</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>А</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Б</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>В</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Й</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Щ</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Ъ</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>Ь</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>О</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Ш</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Э</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Щ</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Ъ</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>.</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>Й</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>Ю</c:v>
@@ -2132,118 +2245,118 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>0.12</c:v>
+                  <c:v>0.11347517730496454</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>0.11347517730496454</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>7.8014184397163122E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.09</c:v>
+                  <c:v>5.6737588652482268E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3333333333333339E-2</c:v>
+                  <c:v>4.9645390070921988E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.06</c:v>
+                  <c:v>4.9645390070921988E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.06</c:v>
+                  <c:v>4.2553191489361701E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6666666666666669E-2</c:v>
+                  <c:v>4.2553191489361701E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.04</c:v>
+                  <c:v>4.2553191489361701E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.04</c:v>
+                  <c:v>3.5460992907801421E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6666666666666667E-2</c:v>
+                  <c:v>3.5460992907801421E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3333333333333333E-2</c:v>
+                  <c:v>2.8368794326241134E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3333333333333333E-2</c:v>
+                  <c:v>2.8368794326241134E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>2.8368794326241134E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3333333333333334E-2</c:v>
+                  <c:v>2.1276595744680851E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3333333333333334E-2</c:v>
+                  <c:v>2.1276595744680851E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.02</c:v>
+                  <c:v>2.1276595744680851E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6666666666666666E-2</c:v>
+                  <c:v>2.1276595744680851E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6666666666666666E-2</c:v>
+                  <c:v>2.1276595744680851E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6666666666666666E-2</c:v>
+                  <c:v>2.1276595744680851E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3333333333333334E-2</c:v>
+                  <c:v>1.4184397163120567E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3333333333333334E-2</c:v>
+                  <c:v>1.4184397163120567E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3333333333333334E-2</c:v>
+                  <c:v>1.4184397163120567E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3333333333333334E-2</c:v>
+                  <c:v>1.4184397163120567E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3333333333333334E-2</c:v>
+                  <c:v>1.4184397163120567E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.01</c:v>
+                  <c:v>7.0921985815602835E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.01</c:v>
+                  <c:v>7.0921985815602835E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.01</c:v>
+                  <c:v>7.0921985815602835E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.01</c:v>
+                  <c:v>7.0921985815602835E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.01</c:v>
+                  <c:v>7.0921985815602835E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.01</c:v>
+                  <c:v>7.0921985815602835E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.6666666666666671E-3</c:v>
+                  <c:v>7.0921985815602835E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.6666666666666671E-3</c:v>
+                  <c:v>7.0921985815602835E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0</c:v>
@@ -2288,6 +2401,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
         <c:axId val="2124879440"/>
         <c:axId val="2124879856"/>
       </c:barChart>
@@ -2313,7 +2427,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2361,45 +2475,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.00000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="2124879440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -4625,7 +4706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C355FE6-8A4E-427E-A252-8FC5964A4D12}">
   <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -4704,8 +4785,8 @@
         <v>141</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -4735,8 +4816,8 @@
       </c>
       <c r="H3" s="9"/>
       <c r="K3" s="1"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -4761,8 +4842,8 @@
         <v>52</v>
       </c>
       <c r="L4" s="5"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -4802,8 +4883,8 @@
         <v>159</v>
       </c>
       <c r="L5" s="5"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -4837,8 +4918,8 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -4867,8 +4948,8 @@
         <v>7</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -4885,8 +4966,8 @@
         <v>8</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
@@ -4904,8 +4985,8 @@
         <v>9</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -4922,8 +5003,8 @@
         <v>0</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.35">
@@ -4941,8 +5022,8 @@
         <v>А</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
@@ -4959,8 +5040,8 @@
         <v>Б</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
@@ -4978,8 +5059,8 @@
         <v>В</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -4996,8 +5077,8 @@
         <v>Г</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
@@ -5015,8 +5096,8 @@
         <v>Д</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -5033,8 +5114,8 @@
         <v>Е</v>
       </c>
       <c r="H16" s="10"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
       <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -5052,8 +5133,8 @@
         <v>Ё</v>
       </c>
       <c r="H17" s="10"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
@@ -5070,8 +5151,8 @@
         <v>Ж</v>
       </c>
       <c r="H18" s="10"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
       <c r="O18" s="5"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -5089,8 +5170,8 @@
         <v>З</v>
       </c>
       <c r="H19" s="10"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -5107,8 +5188,8 @@
         <v>И</v>
       </c>
       <c r="H20" s="10"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -5126,8 +5207,8 @@
         <v>Й</v>
       </c>
       <c r="H21" s="10"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
@@ -5144,8 +5225,8 @@
         <v>К</v>
       </c>
       <c r="H22" s="10"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
       <c r="O22" s="5"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -5163,8 +5244,8 @@
         <v>Л</v>
       </c>
       <c r="H23" s="10"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
@@ -5181,8 +5262,8 @@
         <v>М</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -5200,8 +5281,8 @@
         <v>Н</v>
       </c>
       <c r="H25" s="10"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
@@ -5218,8 +5299,8 @@
         <v>О</v>
       </c>
       <c r="H26" s="10"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -5237,8 +5318,8 @@
         <v>П</v>
       </c>
       <c r="H27" s="10"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
@@ -5255,8 +5336,8 @@
         <v>Р</v>
       </c>
       <c r="H28" s="10"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -5274,8 +5355,8 @@
         <v>С</v>
       </c>
       <c r="H29" s="10"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
@@ -5292,8 +5373,8 @@
         <v>Т</v>
       </c>
       <c r="H30" s="10"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -5311,8 +5392,8 @@
         <v>У</v>
       </c>
       <c r="H31" s="10"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
@@ -5329,8 +5410,8 @@
         <v>Ф</v>
       </c>
       <c r="H32" s="10"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
       <c r="O32" s="5"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -5348,8 +5429,8 @@
         <v>Х</v>
       </c>
       <c r="H33" s="10"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
@@ -5366,8 +5447,8 @@
         <v>Ц</v>
       </c>
       <c r="H34" s="10"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -5385,8 +5466,8 @@
         <v>Ч</v>
       </c>
       <c r="H35" s="10"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
@@ -5403,8 +5484,8 @@
         <v>Ш</v>
       </c>
       <c r="H36" s="10"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
       <c r="O36" s="5"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -5422,8 +5503,8 @@
         <v>Щ</v>
       </c>
       <c r="H37" s="10"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
@@ -5440,8 +5521,8 @@
         <v>Ъ</v>
       </c>
       <c r="H38" s="10"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -5459,8 +5540,8 @@
         <v>Ы</v>
       </c>
       <c r="H39" s="10"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -5477,8 +5558,8 @@
         <v>Ь</v>
       </c>
       <c r="H40" s="10"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -5496,8 +5577,8 @@
         <v>Э</v>
       </c>
       <c r="H41" s="10"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
@@ -5514,8 +5595,8 @@
         <v>Ю</v>
       </c>
       <c r="H42" s="10"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
       <c r="O42" s="5"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -5533,8 +5614,8 @@
         <v>Я</v>
       </c>
       <c r="H43" s="10"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
@@ -5551,8 +5632,8 @@
         <v>,</v>
       </c>
       <c r="H44" s="10"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
       <c r="O44" s="5"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -5570,8 +5651,8 @@
         <v>.</v>
       </c>
       <c r="H45" s="10"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
@@ -5588,8 +5669,8 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H46" s="10"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
       <c r="O46" s="5"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -5607,12 +5688,12 @@
         <v>1</v>
       </c>
       <c r="H47" s="10"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="M48" s="30"/>
-      <c r="N48" s="31"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5632,8 +5713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7A7155-FABF-4109-83DC-B1A5A1B8DBDA}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:H48"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5673,8 +5754,8 @@
       <c r="L1" s="38"/>
       <c r="M1" s="38"/>
       <c r="O1" s="10"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
@@ -5706,8 +5787,8 @@
         <v>58</v>
       </c>
       <c r="O2" s="10"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
@@ -5726,31 +5807,31 @@
         <v>4</v>
       </c>
       <c r="G3" s="24">
-        <f>H3/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.12</v>
-      </c>
-      <c r="H3" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F3),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F3),""))</f>
-        <v>36</v>
+        <f>H3/LEN(ИсхТекст)</f>
+        <v>0.11347517730496454</v>
+      </c>
+      <c r="H3" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F3,""))</f>
+        <v>16</v>
       </c>
       <c r="J3" s="15">
         <v>1</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="24">
-        <f>M3/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.12</v>
-      </c>
-      <c r="M3" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K3),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K3),""))</f>
-        <v>36</v>
+        <f>M3/LEN(ЗашТекст)</f>
+        <v>0.11347517730496454</v>
+      </c>
+      <c r="M3" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K3,""))</f>
+        <v>16</v>
       </c>
       <c r="O3" s="10"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
@@ -5766,34 +5847,34 @@
         <v>2</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G4" s="24">
-        <f>H4/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.1</v>
-      </c>
-      <c r="H4" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F4),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F4),""))</f>
-        <v>30</v>
+        <f>H4/LEN(ИсхТекст)</f>
+        <v>0.11347517730496454</v>
+      </c>
+      <c r="H4" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F4,""))</f>
+        <v>16</v>
       </c>
       <c r="J4" s="16">
         <v>2</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>8</v>
+      <c r="K4" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="L4" s="24">
-        <f>M4/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.12</v>
-      </c>
-      <c r="M4" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K4),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K4),""))</f>
-        <v>36</v>
+        <f>M4/LEN(ЗашТекст)</f>
+        <v>0.11347517730496454</v>
+      </c>
+      <c r="M4" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K4,""))</f>
+        <v>16</v>
       </c>
       <c r="O4" s="10"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
@@ -5809,15 +5890,15 @@
         <v>3</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G5" s="24">
-        <f>H5/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.09</v>
-      </c>
-      <c r="H5" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F5),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F5),""))</f>
-        <v>27</v>
+        <f>H5/LEN(ИсхТекст)</f>
+        <v>7.8014184397163122E-2</v>
+      </c>
+      <c r="H5" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F5,""))</f>
+        <v>11</v>
       </c>
       <c r="J5" s="15">
         <v>3</v>
@@ -5826,17 +5907,17 @@
         <v>24</v>
       </c>
       <c r="L5" s="24">
-        <f>M5/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.1</v>
-      </c>
-      <c r="M5" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K5),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K5),""))</f>
-        <v>30</v>
+        <f>M5/LEN(ЗашТекст)</f>
+        <v>7.8014184397163122E-2</v>
+      </c>
+      <c r="M5" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K5,""))</f>
+        <v>11</v>
       </c>
       <c r="O5" s="10"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
@@ -5855,31 +5936,31 @@
         <v>15</v>
       </c>
       <c r="G6" s="24">
-        <f>H6/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>6.3333333333333339E-2</v>
-      </c>
-      <c r="H6" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F6),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F6),""))</f>
-        <v>19</v>
+        <f>H6/LEN(ИсхТекст)</f>
+        <v>5.6737588652482268E-2</v>
+      </c>
+      <c r="H6" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F6,""))</f>
+        <v>8</v>
       </c>
       <c r="J6" s="16">
         <v>4</v>
       </c>
-      <c r="K6" s="17" t="s">
-        <v>34</v>
+      <c r="K6" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="L6" s="24">
-        <f>M6/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.09</v>
-      </c>
-      <c r="M6" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K6),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K6),""))</f>
-        <v>27</v>
+        <f>M6/LEN(ЗашТекст)</f>
+        <v>5.6737588652482268E-2</v>
+      </c>
+      <c r="M6" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K6,""))</f>
+        <v>8</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
@@ -5898,31 +5979,31 @@
         <v>24</v>
       </c>
       <c r="G7" s="24">
-        <f>H7/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.06</v>
-      </c>
-      <c r="H7" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F7),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F7),""))</f>
-        <v>18</v>
+        <f>H7/LEN(ИсхТекст)</f>
+        <v>4.9645390070921988E-2</v>
+      </c>
+      <c r="H7" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F7,""))</f>
+        <v>7</v>
       </c>
       <c r="J7" s="15">
         <v>5</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>19</v>
+      <c r="K7" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="L7" s="24">
-        <f>M7/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>6.3333333333333339E-2</v>
-      </c>
-      <c r="M7" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K7),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K7),""))</f>
-        <v>19</v>
+        <f>M7/LEN(ЗашТекст)</f>
+        <v>4.9645390070921988E-2</v>
+      </c>
+      <c r="M7" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K7,""))</f>
+        <v>7</v>
       </c>
       <c r="O7" s="10"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
@@ -5941,31 +6022,31 @@
         <v>29</v>
       </c>
       <c r="G8" s="24">
-        <f>H8/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.06</v>
-      </c>
-      <c r="H8" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F8),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F8),""))</f>
-        <v>18</v>
+        <f>H8/LEN(ИсхТекст)</f>
+        <v>4.9645390070921988E-2</v>
+      </c>
+      <c r="H8" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F8,""))</f>
+        <v>7</v>
       </c>
       <c r="J8" s="16">
         <v>6</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>28</v>
+      <c r="K8" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="L8" s="24">
-        <f>M8/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.06</v>
-      </c>
-      <c r="M8" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K8),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K8),""))</f>
-        <v>18</v>
+        <f>M8/LEN(ЗашТекст)</f>
+        <v>4.9645390070921988E-2</v>
+      </c>
+      <c r="M8" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K8,""))</f>
+        <v>7</v>
       </c>
       <c r="O8" s="10"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
@@ -5984,31 +6065,31 @@
         <v>17</v>
       </c>
       <c r="G9" s="24">
-        <f>H9/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>4.6666666666666669E-2</v>
-      </c>
-      <c r="H9" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F9),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F9),""))</f>
-        <v>14</v>
+        <f>H9/LEN(ИсхТекст)</f>
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="H9" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F9,""))</f>
+        <v>6</v>
       </c>
       <c r="J9" s="15">
         <v>7</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>33</v>
+      <c r="K9" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="L9" s="24">
-        <f>M9/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.06</v>
-      </c>
-      <c r="M9" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K9),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K9),""))</f>
-        <v>18</v>
+        <f>M9/LEN(ЗашТекст)</f>
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="M9" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K9,""))</f>
+        <v>6</v>
       </c>
       <c r="O9" s="10"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
@@ -6027,31 +6108,31 @@
         <v>32</v>
       </c>
       <c r="G10" s="24">
-        <f>H10/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.04</v>
-      </c>
-      <c r="H10" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F10),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F10),""))</f>
-        <v>12</v>
+        <f>H10/LEN(ИсхТекст)</f>
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="H10" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F10,""))</f>
+        <v>6</v>
       </c>
       <c r="J10" s="16">
         <v>8</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>21</v>
+      <c r="K10" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="L10" s="24">
-        <f>M10/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>4.6666666666666669E-2</v>
-      </c>
-      <c r="M10" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K10),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K10),""))</f>
-        <v>14</v>
+        <f>M10/LEN(ЗашТекст)</f>
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="M10" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K10,""))</f>
+        <v>6</v>
       </c>
       <c r="O10" s="10"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="16">
@@ -6067,34 +6148,34 @@
         <v>9</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G11" s="24">
-        <f>H11/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.04</v>
-      </c>
-      <c r="H11" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F11),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F11),""))</f>
-        <v>12</v>
+        <f>H11/LEN(ИсхТекст)</f>
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="H11" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F11,""))</f>
+        <v>6</v>
       </c>
       <c r="J11" s="15">
         <v>9</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>36</v>
+      <c r="K11" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="L11" s="24">
-        <f>M11/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.04</v>
-      </c>
-      <c r="M11" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K11),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K11),""))</f>
-        <v>12</v>
+        <f>M11/LEN(ЗашТекст)</f>
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="M11" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K11,""))</f>
+        <v>6</v>
       </c>
       <c r="O11" s="10"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
@@ -6110,34 +6191,34 @@
         <v>10</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G12" s="24">
-        <f>H12/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>3.6666666666666667E-2</v>
-      </c>
-      <c r="H12" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F12),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F12),""))</f>
-        <v>11</v>
+        <f>H12/LEN(ИсхТекст)</f>
+        <v>3.5460992907801421E-2</v>
+      </c>
+      <c r="H12" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F12,""))</f>
+        <v>5</v>
       </c>
       <c r="J12" s="16">
         <v>10</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="14" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="24">
-        <f>M12/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.04</v>
-      </c>
-      <c r="M12" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K12),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K12),""))</f>
-        <v>12</v>
+        <f>M12/LEN(ЗашТекст)</f>
+        <v>3.5460992907801421E-2</v>
+      </c>
+      <c r="M12" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K12,""))</f>
+        <v>5</v>
       </c>
       <c r="O12" s="10"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
@@ -6153,34 +6234,34 @@
         <v>11</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G13" s="24">
-        <f>H13/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="H13" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F13),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F13),""))</f>
-        <v>10</v>
+        <f>H13/LEN(ИсхТекст)</f>
+        <v>3.5460992907801421E-2</v>
+      </c>
+      <c r="H13" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F13,""))</f>
+        <v>5</v>
       </c>
       <c r="J13" s="15">
         <v>11</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>38</v>
+      <c r="K13" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="L13" s="24">
-        <f>M13/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>3.6666666666666667E-2</v>
-      </c>
-      <c r="M13" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K13),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K13),""))</f>
-        <v>11</v>
+        <f>M13/LEN(ЗашТекст)</f>
+        <v>3.5460992907801421E-2</v>
+      </c>
+      <c r="M13" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K13,""))</f>
+        <v>5</v>
       </c>
       <c r="O13" s="10"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
@@ -6199,31 +6280,31 @@
         <v>28</v>
       </c>
       <c r="G14" s="24">
-        <f>H14/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="H14" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F14),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F14),""))</f>
-        <v>10</v>
+        <f>H14/LEN(ИсхТекст)</f>
+        <v>2.8368794326241134E-2</v>
+      </c>
+      <c r="H14" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F14,""))</f>
+        <v>4</v>
       </c>
       <c r="J14" s="16">
         <v>12</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>37</v>
+      <c r="K14" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="L14" s="24">
-        <f>M14/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="M14" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K14),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K14),""))</f>
-        <v>10</v>
+        <f>M14/LEN(ЗашТекст)</f>
+        <v>2.8368794326241134E-2</v>
+      </c>
+      <c r="M14" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K14,""))</f>
+        <v>4</v>
       </c>
       <c r="O14" s="10"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
@@ -6239,34 +6320,34 @@
         <v>13</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G15" s="24">
-        <f>H15/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="H15" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F15),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F15),""))</f>
-        <v>8</v>
+        <f>H15/LEN(ИсхТекст)</f>
+        <v>2.8368794326241134E-2</v>
+      </c>
+      <c r="H15" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F15,""))</f>
+        <v>4</v>
       </c>
       <c r="J15" s="15">
         <v>13</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>32</v>
+      <c r="K15" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="L15" s="24">
-        <f>M15/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="M15" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K15),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K15),""))</f>
-        <v>10</v>
+        <f>M15/LEN(ЗашТекст)</f>
+        <v>2.8368794326241134E-2</v>
+      </c>
+      <c r="M15" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K15,""))</f>
+        <v>4</v>
       </c>
       <c r="O15" s="10"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
@@ -6282,34 +6363,34 @@
         <v>14</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G16" s="24">
-        <f>H16/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>2.3333333333333334E-2</v>
-      </c>
-      <c r="H16" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F16),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F16),""))</f>
-        <v>7</v>
+        <f>H16/LEN(ИсхТекст)</f>
+        <v>2.8368794326241134E-2</v>
+      </c>
+      <c r="H16" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F16,""))</f>
+        <v>4</v>
       </c>
       <c r="J16" s="16">
         <v>14</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>43</v>
+      <c r="K16" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="L16" s="24">
-        <f>M16/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="M16" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K16),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K16),""))</f>
-        <v>8</v>
+        <f>M16/LEN(ЗашТекст)</f>
+        <v>2.8368794326241134E-2</v>
+      </c>
+      <c r="M16" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K16,""))</f>
+        <v>4</v>
       </c>
       <c r="O16" s="10"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
@@ -6325,34 +6406,34 @@
         <v>15</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="G17" s="24">
-        <f>H17/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>2.3333333333333334E-2</v>
-      </c>
-      <c r="H17" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F17),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F17),""))</f>
-        <v>7</v>
+        <f>H17/LEN(ИсхТекст)</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="H17" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F17,""))</f>
+        <v>3</v>
       </c>
       <c r="J17" s="15">
         <v>15</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>39</v>
+      <c r="K17" s="14" t="s">
+        <v>2</v>
       </c>
       <c r="L17" s="24">
-        <f>M17/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>2.3333333333333334E-2</v>
-      </c>
-      <c r="M17" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K17),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K17),""))</f>
-        <v>7</v>
+        <f>M17/LEN(ЗашТекст)</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="M17" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K17,""))</f>
+        <v>3</v>
       </c>
       <c r="O17" s="10"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
@@ -6368,34 +6449,34 @@
         <v>16</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G18" s="24">
-        <f>H18/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.02</v>
-      </c>
-      <c r="H18" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F18),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F18),""))</f>
-        <v>6</v>
+        <f>H18/LEN(ИсхТекст)</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="H18" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F18,""))</f>
+        <v>3</v>
       </c>
       <c r="J18" s="16">
         <v>16</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>2</v>
+      <c r="K18" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="L18" s="24">
-        <f>M18/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>2.3333333333333334E-2</v>
-      </c>
-      <c r="M18" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K18),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K18),""))</f>
-        <v>7</v>
+        <f>M18/LEN(ЗашТекст)</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="M18" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K18,""))</f>
+        <v>3</v>
       </c>
       <c r="O18" s="10"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="16">
@@ -6411,34 +6492,34 @@
         <v>17</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G19" s="24">
-        <f>H19/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="H19" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F19),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F19),""))</f>
-        <v>5</v>
+        <f>H19/LEN(ИсхТекст)</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="H19" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F19,""))</f>
+        <v>3</v>
       </c>
       <c r="J19" s="15">
         <v>17</v>
       </c>
-      <c r="K19" s="17" t="s">
-        <v>47</v>
+      <c r="K19" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="L19" s="24">
-        <f>M19/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.02</v>
-      </c>
-      <c r="M19" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K19),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K19),""))</f>
-        <v>6</v>
+        <f>M19/LEN(ЗашТекст)</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="M19" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K19,""))</f>
+        <v>3</v>
       </c>
       <c r="O19" s="10"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
@@ -6454,34 +6535,34 @@
         <v>18</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G20" s="24">
-        <f>H20/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="H20" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F20),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F20),""))</f>
-        <v>5</v>
+        <f>H20/LEN(ИсхТекст)</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="H20" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F20,""))</f>
+        <v>3</v>
       </c>
       <c r="J20" s="16">
         <v>18</v>
       </c>
-      <c r="K20" s="17" t="s">
-        <v>27</v>
+      <c r="K20" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="L20" s="24">
-        <f>M20/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="M20" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K20),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K20),""))</f>
-        <v>5</v>
+        <f>M20/LEN(ЗашТекст)</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="M20" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K20,""))</f>
+        <v>3</v>
       </c>
       <c r="O20" s="10"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
@@ -6497,34 +6578,34 @@
         <v>19</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G21" s="24">
-        <f>H21/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="H21" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F21),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F21),""))</f>
-        <v>4</v>
+        <f>H21/LEN(ИсхТекст)</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="H21" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F21,""))</f>
+        <v>3</v>
       </c>
       <c r="J21" s="15">
         <v>19</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>6</v>
+      <c r="K21" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="L21" s="24">
-        <f>M21/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="M21" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K21),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K21),""))</f>
-        <v>5</v>
+        <f>M21/LEN(ЗашТекст)</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="M21" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K21,""))</f>
+        <v>3</v>
       </c>
       <c r="O21" s="10"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
@@ -6540,34 +6621,34 @@
         <v>20</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G22" s="24">
-        <f>H22/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="H22" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F22),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F22),""))</f>
-        <v>4</v>
+        <f>H22/LEN(ИсхТекст)</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="H22" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F22,""))</f>
+        <v>3</v>
       </c>
       <c r="J22" s="16">
         <v>20</v>
       </c>
-      <c r="K22" s="17" t="s">
-        <v>6</v>
+      <c r="K22" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="L22" s="24">
-        <f>M22/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="M22" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K22),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K22),""))</f>
-        <v>5</v>
+        <f>M22/LEN(ЗашТекст)</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="M22" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K22,""))</f>
+        <v>3</v>
       </c>
       <c r="O22" s="10"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
@@ -6583,34 +6664,34 @@
         <v>21</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G23" s="24">
-        <f>H23/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="H23" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F23),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F23),""))</f>
-        <v>4</v>
+        <f>H23/LEN(ИсхТекст)</f>
+        <v>1.4184397163120567E-2</v>
+      </c>
+      <c r="H23" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F23,""))</f>
+        <v>2</v>
       </c>
       <c r="J23" s="15">
         <v>21</v>
       </c>
-      <c r="K23" s="17" t="s">
-        <v>31</v>
+      <c r="K23" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="L23" s="24">
-        <f>M23/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="M23" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K23),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K23),""))</f>
-        <v>4</v>
+        <f>M23/LEN(ЗашТекст)</f>
+        <v>1.4184397163120567E-2</v>
+      </c>
+      <c r="M23" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K23,""))</f>
+        <v>2</v>
       </c>
       <c r="O23" s="10"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
@@ -6626,34 +6707,34 @@
         <v>22</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G24" s="24">
-        <f>H24/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="H24" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F24),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F24),""))</f>
-        <v>4</v>
+        <f>H24/LEN(ИсхТекст)</f>
+        <v>1.4184397163120567E-2</v>
+      </c>
+      <c r="H24" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F24,""))</f>
+        <v>2</v>
       </c>
       <c r="J24" s="16">
         <v>22</v>
       </c>
-      <c r="K24" s="17" t="s">
-        <v>35</v>
+      <c r="K24" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="L24" s="24">
-        <f>M24/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="M24" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K24),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K24),""))</f>
-        <v>4</v>
+        <f>M24/LEN(ЗашТекст)</f>
+        <v>1.4184397163120567E-2</v>
+      </c>
+      <c r="M24" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K24,""))</f>
+        <v>2</v>
       </c>
       <c r="O24" s="10"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
@@ -6669,34 +6750,34 @@
         <v>23</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G25" s="24">
-        <f>H25/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.01</v>
-      </c>
-      <c r="H25" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F25),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F25),""))</f>
-        <v>3</v>
+        <f>H25/LEN(ИсхТекст)</f>
+        <v>1.4184397163120567E-2</v>
+      </c>
+      <c r="H25" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F25,""))</f>
+        <v>2</v>
       </c>
       <c r="J25" s="15">
         <v>23</v>
       </c>
-      <c r="K25" s="17" t="s">
-        <v>22</v>
+      <c r="K25" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="L25" s="24">
-        <f>M25/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="M25" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K25),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K25),""))</f>
-        <v>4</v>
+        <f>M25/LEN(ЗашТекст)</f>
+        <v>1.4184397163120567E-2</v>
+      </c>
+      <c r="M25" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K25,""))</f>
+        <v>2</v>
       </c>
       <c r="O25" s="10"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="16">
@@ -6712,34 +6793,34 @@
         <v>24</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G26" s="24">
-        <f>H26/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.01</v>
-      </c>
-      <c r="H26" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F26),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F26),""))</f>
-        <v>3</v>
+        <f>H26/LEN(ИсхТекст)</f>
+        <v>1.4184397163120567E-2</v>
+      </c>
+      <c r="H26" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F26,""))</f>
+        <v>2</v>
       </c>
       <c r="J26" s="16">
         <v>24</v>
       </c>
-      <c r="K26" s="27" t="s">
-        <v>7</v>
+      <c r="K26" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="L26" s="24">
-        <f>M26/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="M26" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K26),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K26),""))</f>
-        <v>4</v>
+        <f>M26/LEN(ЗашТекст)</f>
+        <v>1.4184397163120567E-2</v>
+      </c>
+      <c r="M26" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K26,""))</f>
+        <v>2</v>
       </c>
       <c r="O26" s="10"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="16">
@@ -6755,35 +6836,35 @@
         <v>25</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="G27" s="24">
-        <f>H27/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.01</v>
-      </c>
-      <c r="H27" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F27),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F27),""))</f>
-        <v>3</v>
+        <f>H27/LEN(ИсхТекст)</f>
+        <v>1.4184397163120567E-2</v>
+      </c>
+      <c r="H27" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F27,""))</f>
+        <v>2</v>
       </c>
       <c r="J27" s="15">
         <v>25</v>
       </c>
-      <c r="K27" s="27" t="s">
-        <v>7</v>
+      <c r="K27" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="L27" s="24">
-        <f>M27/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="M27" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K27),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K27),""))</f>
-        <v>4</v>
+        <f>M27/LEN(ЗашТекст)</f>
+        <v>1.4184397163120567E-2</v>
+      </c>
+      <c r="M27" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K27,""))</f>
+        <v>2</v>
       </c>
       <c r="O27" s="10"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
@@ -6799,34 +6880,34 @@
         <v>26</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G28" s="24">
-        <f>H28/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.01</v>
-      </c>
-      <c r="H28" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F28),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F28),""))</f>
-        <v>3</v>
+        <f>H28/LEN(ИсхТекст)</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="H28" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F28,""))</f>
+        <v>1</v>
       </c>
       <c r="J28" s="16">
         <v>26</v>
       </c>
-      <c r="K28" s="27" t="s">
-        <v>10</v>
+      <c r="K28" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="L28" s="24">
-        <f>M28/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.01</v>
-      </c>
-      <c r="M28" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K28),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K28),""))</f>
-        <v>3</v>
+        <f>M28/LEN(ЗашТекст)</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="M28" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K28,""))</f>
+        <v>1</v>
       </c>
       <c r="O28" s="10"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
@@ -6842,34 +6923,34 @@
         <v>27</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G29" s="24">
-        <f>H29/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.01</v>
-      </c>
-      <c r="H29" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F29),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F29),""))</f>
-        <v>3</v>
+        <f>H29/LEN(ИсхТекст)</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="H29" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F29,""))</f>
+        <v>1</v>
       </c>
       <c r="J29" s="15">
         <v>27</v>
       </c>
-      <c r="K29" s="27" t="s">
-        <v>20</v>
+      <c r="K29" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="L29" s="24">
-        <f>M29/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.01</v>
-      </c>
-      <c r="M29" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K29),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K29),""))</f>
-        <v>3</v>
+        <f>M29/LEN(ЗашТекст)</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="M29" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K29,""))</f>
+        <v>1</v>
       </c>
       <c r="O29" s="10"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
@@ -6885,34 +6966,34 @@
         <v>28</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G30" s="24">
-        <f>H30/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.01</v>
-      </c>
-      <c r="H30" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F30),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F30),""))</f>
-        <v>3</v>
+        <f>H30/LEN(ИсхТекст)</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="H30" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F30,""))</f>
+        <v>1</v>
       </c>
       <c r="J30" s="16">
         <v>28</v>
       </c>
-      <c r="K30" s="27" t="s">
-        <v>29</v>
+      <c r="K30" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="L30" s="24">
-        <f>M30/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.01</v>
-      </c>
-      <c r="M30" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K30),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K30),""))</f>
-        <v>3</v>
+        <f>M30/LEN(ЗашТекст)</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="M30" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K30,""))</f>
+        <v>1</v>
       </c>
       <c r="O30" s="10"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
@@ -6928,34 +7009,34 @@
         <v>29</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G31" s="24">
-        <f>H31/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>0.01</v>
-      </c>
-      <c r="H31" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F31),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F31),""))</f>
-        <v>3</v>
+        <f>H31/LEN(ИсхТекст)</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="H31" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F31,""))</f>
+        <v>1</v>
       </c>
       <c r="J31" s="15">
         <v>29</v>
       </c>
-      <c r="K31" s="27" t="s">
+      <c r="K31" s="14" t="s">
         <v>26</v>
       </c>
       <c r="L31" s="24">
-        <f>M31/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.01</v>
-      </c>
-      <c r="M31" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K31),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K31),""))</f>
-        <v>3</v>
+        <f>M31/LEN(ЗашТекст)</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="M31" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K31,""))</f>
+        <v>1</v>
       </c>
       <c r="O31" s="10"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="16">
@@ -6971,34 +7052,34 @@
         <v>30</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G32" s="24">
-        <f>H32/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="H32" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F32),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F32),""))</f>
-        <v>2</v>
+        <f>H32/LEN(ИсхТекст)</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="H32" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F32,""))</f>
+        <v>1</v>
       </c>
       <c r="J32" s="16">
         <v>30</v>
       </c>
-      <c r="K32" s="27" t="s">
-        <v>44</v>
+      <c r="K32" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="L32" s="24">
-        <f>M32/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.01</v>
-      </c>
-      <c r="M32" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K32),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K32),""))</f>
-        <v>3</v>
+        <f>M32/LEN(ЗашТекст)</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="M32" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K32,""))</f>
+        <v>1</v>
       </c>
       <c r="O32" s="10"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="16">
@@ -7014,34 +7095,34 @@
         <v>31</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" s="24">
-        <f>H33/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="H33" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F33),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F33),""))</f>
-        <v>2</v>
+        <f>H33/LEN(ИсхТекст)</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="H33" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F33,""))</f>
+        <v>1</v>
       </c>
       <c r="J33" s="15">
         <v>31</v>
       </c>
-      <c r="K33" s="27" t="s">
-        <v>4</v>
+      <c r="K33" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="L33" s="24">
-        <f>M33/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>0.01</v>
-      </c>
-      <c r="M33" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K33),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K33),""))</f>
-        <v>3</v>
+        <f>M33/LEN(ЗашТекст)</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="M33" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K33,""))</f>
+        <v>1</v>
       </c>
       <c r="O33" s="10"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="16">
@@ -7057,34 +7138,34 @@
         <v>32</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G34" s="24">
-        <f>H34/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="H34" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F34),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F34),""))</f>
+        <f>H34/LEN(ИсхТекст)</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="H34" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F34,""))</f>
         <v>1</v>
       </c>
       <c r="J34" s="16">
         <v>32</v>
       </c>
-      <c r="K34" s="27" t="s">
-        <v>30</v>
+      <c r="K34" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="L34" s="24">
-        <f>M34/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="M34" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K34),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K34),""))</f>
-        <v>2</v>
+        <f>M34/LEN(ЗашТекст)</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="M34" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K34,""))</f>
+        <v>1</v>
       </c>
       <c r="O34" s="10"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="16">
@@ -7100,34 +7181,34 @@
         <v>33</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="G35" s="24">
-        <f>H35/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="H35" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F35),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F35),""))</f>
+        <f>H35/LEN(ИсхТекст)</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="H35" s="37">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F35,""))</f>
         <v>1</v>
       </c>
       <c r="J35" s="15">
         <v>33</v>
       </c>
-      <c r="K35" s="27" t="s">
-        <v>40</v>
+      <c r="K35" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="L35" s="24">
-        <f>M35/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="M35" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K35),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K35),""))</f>
-        <v>2</v>
+        <f>M35/LEN(ЗашТекст)</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+      <c r="M35" s="34">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K35,""))</f>
+        <v>1</v>
       </c>
       <c r="O35" s="10"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="16">
@@ -7139,38 +7220,39 @@
       <c r="C36" s="21">
         <v>1.3117500000000001E-2</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="47">
         <v>34</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="24">
-        <f>H36/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="H36" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F36),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F36),""))</f>
-        <v>1</v>
-      </c>
-      <c r="J36" s="16">
+        <v>8</v>
+      </c>
+      <c r="G36" s="48">
+        <f>H36/LEN(ИсхТекст)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="49">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F36,""))</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="50"/>
+      <c r="J36" s="47">
         <v>34</v>
       </c>
-      <c r="K36" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L36" s="24">
-        <f>M36/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="M36" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K36),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K36),""))</f>
-        <v>1</v>
+      <c r="K36" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L36" s="48">
+        <f>M36/LEN(ЗашТекст)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="51">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K36,""))</f>
+        <v>0</v>
       </c>
       <c r="O36" s="10"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="16">
@@ -7182,38 +7264,39 @@
       <c r="C37" s="21">
         <v>1.1879999999999998E-2</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="52">
         <v>35</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="24">
-        <f>H37/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="H37" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F37),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F37),""))</f>
-        <v>1</v>
-      </c>
-      <c r="J37" s="15">
+        <v>9</v>
+      </c>
+      <c r="G37" s="48">
+        <f>H37/LEN(ИсхТекст)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="49">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F37,""))</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="50"/>
+      <c r="J37" s="52">
         <v>35</v>
       </c>
-      <c r="K37" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L37" s="24">
-        <f>M37/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="M37" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K37),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K37),""))</f>
-        <v>1</v>
+      <c r="K37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="48">
+        <f>M37/LEN(ЗашТекст)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="51">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K37,""))</f>
+        <v>0</v>
       </c>
       <c r="O37" s="10"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="16">
@@ -7225,38 +7308,39 @@
       <c r="C38" s="21">
         <v>9.9824999999999983E-3</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="47">
         <v>36</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="24">
-        <f>H38/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
+        <v>10</v>
+      </c>
+      <c r="G38" s="48">
+        <f>H38/LEN(ИсхТекст)</f>
         <v>0</v>
       </c>
-      <c r="H38" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F38),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F38),""))</f>
+      <c r="H38" s="49">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F38,""))</f>
         <v>0</v>
       </c>
-      <c r="J38" s="16">
+      <c r="I38" s="50"/>
+      <c r="J38" s="47">
         <v>36</v>
       </c>
-      <c r="K38" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L38" s="24">
-        <f>M38/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="M38" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K38),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K38),""))</f>
-        <v>1</v>
+      <c r="K38" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L38" s="48">
+        <f>M38/LEN(ЗашТекст)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="51">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K38,""))</f>
+        <v>0</v>
       </c>
       <c r="O38" s="10"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="16">
@@ -7268,38 +7352,39 @@
       <c r="C39" s="21">
         <v>8.0024999999999992E-3</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="52">
         <v>37</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="24">
-        <f>H39/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
+        <v>11</v>
+      </c>
+      <c r="G39" s="48">
+        <f>H39/LEN(ИсхТекст)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F39),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F39),""))</f>
+      <c r="H39" s="49">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F39,""))</f>
         <v>0</v>
       </c>
-      <c r="J39" s="15">
+      <c r="I39" s="50"/>
+      <c r="J39" s="52">
         <v>37</v>
       </c>
-      <c r="K39" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" s="24">
-        <f>M39/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="M39" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K39),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K39),""))</f>
-        <v>1</v>
+      <c r="K39" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" s="48">
+        <f>M39/LEN(ЗашТекст)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="51">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K39,""))</f>
+        <v>0</v>
       </c>
       <c r="O39" s="10"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="16">
@@ -7311,38 +7396,39 @@
       <c r="C40" s="21">
         <v>7.7549999999999989E-3</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="47">
         <v>38</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="24">
-        <f>H40/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
+        <v>12</v>
+      </c>
+      <c r="G40" s="48">
+        <f>H40/LEN(ИсхТекст)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F40),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F40),""))</f>
+      <c r="H40" s="49">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F40,""))</f>
         <v>0</v>
       </c>
-      <c r="J40" s="16">
+      <c r="I40" s="50"/>
+      <c r="J40" s="47">
         <v>38</v>
       </c>
-      <c r="K40" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="L40" s="24">
-        <f>M40/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="M40" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K40),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K40),""))</f>
-        <v>1</v>
+      <c r="K40" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" s="48">
+        <f>M40/LEN(ЗашТекст)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="51">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K40,""))</f>
+        <v>0</v>
       </c>
       <c r="O40" s="10"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="16">
@@ -7354,38 +7440,39 @@
       <c r="C41" s="21">
         <v>6.0225000000000001E-3</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="52">
         <v>39</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="24">
-        <f>H41/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
+        <v>13</v>
+      </c>
+      <c r="G41" s="48">
+        <f>H41/LEN(ИсхТекст)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F41),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F41),""))</f>
+      <c r="H41" s="49">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F41,""))</f>
         <v>0</v>
       </c>
-      <c r="J41" s="15">
+      <c r="I41" s="50"/>
+      <c r="J41" s="52">
         <v>39</v>
       </c>
-      <c r="K41" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L41" s="24">
-        <f>M41/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
+      <c r="K41" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="48">
+        <f>M41/LEN(ЗашТекст)</f>
         <v>0</v>
       </c>
-      <c r="M41" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K41),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K41),""))</f>
+      <c r="M41" s="51">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K41,""))</f>
         <v>0</v>
       </c>
       <c r="O41" s="10"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="16">
@@ -7397,38 +7484,39 @@
       <c r="C42" s="21">
         <v>5.28E-3</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="47">
         <v>40</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="24">
-        <f>H42/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
+        <v>21</v>
+      </c>
+      <c r="G42" s="48">
+        <f>H42/LEN(ИсхТекст)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F42),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F42),""))</f>
+      <c r="H42" s="49">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F42,""))</f>
         <v>0</v>
       </c>
-      <c r="J42" s="16">
+      <c r="I42" s="50"/>
+      <c r="J42" s="47">
         <v>40</v>
       </c>
-      <c r="K42" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L42" s="24">
-        <f>M42/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
+      <c r="K42" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="48">
+        <f>M42/LEN(ЗашТекст)</f>
         <v>0</v>
       </c>
-      <c r="M42" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K42),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K42),""))</f>
+      <c r="M42" s="51">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K42,""))</f>
         <v>0</v>
       </c>
       <c r="O42" s="10"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="16">
@@ -7440,38 +7528,39 @@
       <c r="C43" s="21">
         <v>3.9599999999999991E-3</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="52">
         <v>41</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="24">
-        <f>H43/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
+        <v>37</v>
+      </c>
+      <c r="G43" s="48">
+        <f>H43/LEN(ИсхТекст)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F43),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F43),""))</f>
+      <c r="H43" s="49">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F43,""))</f>
         <v>0</v>
       </c>
-      <c r="J43" s="15">
+      <c r="I43" s="50"/>
+      <c r="J43" s="52">
         <v>41</v>
       </c>
-      <c r="K43" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" s="24">
-        <f>M43/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
+      <c r="K43" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="48">
+        <f>M43/LEN(ЗашТекст)</f>
         <v>0</v>
       </c>
-      <c r="M43" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K43),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K43),""))</f>
+      <c r="M43" s="51">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K43,""))</f>
         <v>0</v>
       </c>
       <c r="O43" s="10"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="16">
@@ -7483,38 +7572,39 @@
       <c r="C44" s="21">
         <v>2.9699999999999996E-3</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="47">
         <v>42</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" s="24">
-        <f>H44/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
+        <v>38</v>
+      </c>
+      <c r="G44" s="48">
+        <f>H44/LEN(ИсхТекст)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F44),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F44),""))</f>
+      <c r="H44" s="49">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F44,""))</f>
         <v>0</v>
       </c>
-      <c r="J44" s="16">
+      <c r="I44" s="50"/>
+      <c r="J44" s="47">
         <v>42</v>
       </c>
-      <c r="K44" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="L44" s="24">
-        <f>M44/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
+      <c r="K44" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="48">
+        <f>M44/LEN(ЗашТекст)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K44),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K44),""))</f>
+      <c r="M44" s="51">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K44,""))</f>
         <v>0</v>
       </c>
       <c r="O44" s="10"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="16">
@@ -7526,38 +7616,39 @@
       <c r="C45" s="21">
         <v>2.64E-3</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="52">
         <v>43</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="24">
-        <f>H45/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
+        <v>40</v>
+      </c>
+      <c r="G45" s="48">
+        <f>H45/LEN(ИсхТекст)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F45),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F45),""))</f>
+      <c r="H45" s="49">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F45,""))</f>
         <v>0</v>
       </c>
-      <c r="J45" s="15">
+      <c r="I45" s="50"/>
+      <c r="J45" s="52">
         <v>43</v>
       </c>
-      <c r="K45" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="L45" s="24">
-        <f>M45/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
+      <c r="K45" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" s="48">
+        <f>M45/LEN(ЗашТекст)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K45),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K45),""))</f>
+      <c r="M45" s="51">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K45,""))</f>
         <v>0</v>
       </c>
       <c r="O45" s="10"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="16">
@@ -7569,38 +7660,39 @@
       <c r="C46" s="21">
         <v>2.1449999999999998E-3</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="47">
         <v>44</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G46" s="24">
-        <f>H46/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
+        <v>42</v>
+      </c>
+      <c r="G46" s="48">
+        <f>H46/LEN(ИсхТекст)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F46),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F46),""))</f>
+      <c r="H46" s="49">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F46,""))</f>
         <v>0</v>
       </c>
-      <c r="J46" s="16">
+      <c r="I46" s="50"/>
+      <c r="J46" s="47">
         <v>44</v>
       </c>
-      <c r="K46" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="24">
-        <f>M46/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
+      <c r="K46" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L46" s="48">
+        <f>M46/LEN(ЗашТекст)</f>
         <v>0</v>
       </c>
-      <c r="M46" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K46),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K46),""))</f>
+      <c r="M46" s="51">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K46,""))</f>
         <v>0</v>
       </c>
       <c r="O46" s="10"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="16">
@@ -7612,35 +7704,36 @@
       <c r="C47" s="21">
         <v>3.3E-4</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="52">
         <v>45</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="24">
-        <f>H47/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
+        <v>45</v>
+      </c>
+      <c r="G47" s="48">
+        <f>H47/LEN(ИсхТекст)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F47),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F47),""))</f>
+      <c r="H47" s="49">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F47,""))</f>
         <v>0</v>
       </c>
-      <c r="J47" s="15">
+      <c r="I47" s="50"/>
+      <c r="J47" s="52">
         <v>45</v>
       </c>
-      <c r="K47" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L47" s="24">
-        <f>M47/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
+      <c r="K47" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" s="48">
+        <f>M47/LEN(ЗашТекст)</f>
         <v>0</v>
       </c>
-      <c r="M47" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K47),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K47),""))</f>
+      <c r="M47" s="51">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K47,""))</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="29"/>
+      <c r="Q47" s="28"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="19">
@@ -7652,42 +7745,43 @@
       <c r="C48" s="22">
         <v>3.3E-4</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="47">
         <v>46</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G48" s="24">
-        <f>H48/(LEN('Исх. данные'!$K$1)+LEN('Исх. данные'!$K$4))</f>
+        <v>47</v>
+      </c>
+      <c r="G48" s="48">
+        <f>H48/LEN(ИсхТекст)</f>
         <v>0</v>
       </c>
-      <c r="H48" s="47">
-        <f>LEN('Исх. данные'!$K$1)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$1),LOWER(F48),"")) + LEN('Исх. данные'!$K$4)-LEN(SUBSTITUTE(LOWER('Исх. данные'!$K$4),LOWER(F48),""))</f>
+      <c r="H48" s="49">
+        <f>LEN(ИсхТекст)-LEN(SUBSTITUTE(ИсхТекст,F48,""))</f>
         <v>0</v>
       </c>
-      <c r="J48" s="16">
+      <c r="I48" s="50"/>
+      <c r="J48" s="47">
         <v>46</v>
       </c>
-      <c r="K48" s="23" t="s">
+      <c r="K48" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="L48" s="24">
-        <f>M48/(LEN('Зашифровка сообщения ответчика'!$H$166)+LEN('Зашифровка сообщения инициатора'!$H$148))</f>
+      <c r="L48" s="48">
+        <f>M48/LEN(ЗашТекст)</f>
         <v>0</v>
       </c>
-      <c r="M48" s="35">
-        <f>LEN('Зашифровка сообщения ответчика'!$H$166)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения ответчика'!$H$166),LOWER(K48),""))+LEN('Зашифровка сообщения инициатора'!$H$148)-LEN(SUBSTITUTE(LOWER('Зашифровка сообщения инициатора'!$H$148),LOWER(K48),""))</f>
+      <c r="M48" s="51">
+        <f>LEN(ЗашТекст)-LEN(SUBSTITUTE(ЗашТекст,K48,""))</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="29"/>
+      <c r="Q48" s="28"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="42" t="s">
         <v>55</v>
       </c>
       <c r="B49" s="42"/>
-      <c r="C49" s="37">
+      <c r="C49" s="36">
         <f>SUM(C3:C48)</f>
         <v>1.0000824999999993</v>
       </c>
@@ -7695,17 +7789,17 @@
         <v>55</v>
       </c>
       <c r="F49" s="42"/>
-      <c r="G49" s="37">
+      <c r="G49" s="36">
         <f>SUM(G3:G48)</f>
-        <v>1</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="J49" s="42" t="s">
         <v>55</v>
       </c>
       <c r="K49" s="42"/>
-      <c r="L49" s="37">
+      <c r="L49" s="36">
         <f>SUM(L3:L48)</f>
-        <v>1.143333333333334</v>
+        <v>1.0000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -7734,7 +7828,7 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7753,29 +7847,29 @@
         <v>49</v>
       </c>
       <c r="B1" s="38"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="33"/>
       <c r="Y1" s="38" t="s">
         <v>63</v>
       </c>
@@ -13565,7 +13659,7 @@
       <c r="C139" s="7">
         <v>132</v>
       </c>
-      <c r="D139" s="28" t="str">
+      <c r="D139" s="27" t="str">
         <f t="shared" si="9"/>
         <v>Г</v>
       </c>
@@ -13585,7 +13679,7 @@
       <c r="C140" s="7">
         <v>133</v>
       </c>
-      <c r="D140" s="28" t="str">
+      <c r="D140" s="27" t="str">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
@@ -13625,7 +13719,7 @@
       <c r="C142" s="7">
         <v>135</v>
       </c>
-      <c r="D142" s="28" t="str">
+      <c r="D142" s="27" t="str">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
@@ -13645,7 +13739,7 @@
       <c r="C143" s="7">
         <v>136</v>
       </c>
-      <c r="D143" s="28" t="str">
+      <c r="D143" s="27" t="str">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
@@ -13685,7 +13779,7 @@
       <c r="C145" s="7">
         <v>138</v>
       </c>
-      <c r="D145" s="28" t="str">
+      <c r="D145" s="27" t="str">
         <f>MID(C$1,C145,1)</f>
         <v>6</v>
       </c>
@@ -13705,7 +13799,7 @@
       <c r="C146" s="7">
         <v>139</v>
       </c>
-      <c r="D146" s="28" t="str">
+      <c r="D146" s="27" t="str">
         <f t="shared" ref="D146:D148" si="11">MID(C$1,C146,1)</f>
         <v>Г</v>
       </c>
@@ -13725,7 +13819,7 @@
       <c r="C147" s="7">
         <v>140</v>
       </c>
-      <c r="D147" s="28" t="str">
+      <c r="D147" s="27" t="str">
         <f t="shared" si="11"/>
         <v>Г</v>
       </c>
@@ -13745,7 +13839,7 @@
       <c r="C148" s="7">
         <v>141</v>
       </c>
-      <c r="D148" s="28" t="str">
+      <c r="D148" s="27" t="str">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
@@ -17281,7 +17375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C338743A-8E8C-455B-AFE9-60345AD196A6}">
   <dimension ref="A1:AA166"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
@@ -19997,7 +20091,7 @@
       <c r="C139" s="7">
         <v>132</v>
       </c>
-      <c r="D139" s="28" t="str">
+      <c r="D139" s="27" t="str">
         <f t="shared" si="9"/>
         <v>Ч</v>
       </c>
@@ -20017,7 +20111,7 @@
       <c r="C140" s="7">
         <v>133</v>
       </c>
-      <c r="D140" s="28" t="str">
+      <c r="D140" s="27" t="str">
         <f t="shared" si="9"/>
         <v>Ё</v>
       </c>
@@ -20057,7 +20151,7 @@
       <c r="C142" s="7">
         <v>135</v>
       </c>
-      <c r="D142" s="28" t="str">
+      <c r="D142" s="27" t="str">
         <f t="shared" si="9"/>
         <v>К</v>
       </c>
@@ -20077,7 +20171,7 @@
       <c r="C143" s="7">
         <v>136</v>
       </c>
-      <c r="D143" s="28" t="str">
+      <c r="D143" s="27" t="str">
         <f t="shared" si="9"/>
         <v>И</v>
       </c>
@@ -20117,7 +20211,7 @@
       <c r="C145" s="7">
         <v>138</v>
       </c>
-      <c r="D145" s="28" t="str">
+      <c r="D145" s="27" t="str">
         <f>MID(C$1,C145,1)</f>
         <v>М</v>
       </c>
@@ -20137,7 +20231,7 @@
       <c r="C146" s="7">
         <v>139</v>
       </c>
-      <c r="D146" s="28" t="str">
+      <c r="D146" s="27" t="str">
         <f t="shared" ref="D146:D148" si="11">MID(C$1,C146,1)</f>
         <v>И</v>
       </c>
@@ -20157,7 +20251,7 @@
       <c r="C147" s="7">
         <v>140</v>
       </c>
-      <c r="D147" s="28" t="str">
+      <c r="D147" s="27" t="str">
         <f t="shared" si="11"/>
         <v>Р</v>
       </c>
@@ -20177,7 +20271,7 @@
       <c r="C148" s="7">
         <v>141</v>
       </c>
-      <c r="D148" s="28" t="str">
+      <c r="D148" s="27" t="str">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
@@ -20197,7 +20291,7 @@
       <c r="C149" s="7">
         <v>142</v>
       </c>
-      <c r="D149" s="28" t="str">
+      <c r="D149" s="27" t="str">
         <f t="shared" ref="D149:D158" si="12">MID(C$1,C149,1)</f>
         <v>М</v>
       </c>
@@ -20217,7 +20311,7 @@
       <c r="C150" s="7">
         <v>143</v>
       </c>
-      <c r="D150" s="28" t="str">
+      <c r="D150" s="27" t="str">
         <f t="shared" si="12"/>
         <v>Ж</v>
       </c>
@@ -20237,7 +20331,7 @@
       <c r="C151" s="7">
         <v>144</v>
       </c>
-      <c r="D151" s="28" t="str">
+      <c r="D151" s="27" t="str">
         <f t="shared" si="12"/>
         <v>Т</v>
       </c>
@@ -20257,7 +20351,7 @@
       <c r="C152" s="7">
         <v>145</v>
       </c>
-      <c r="D152" s="28" t="str">
+      <c r="D152" s="27" t="str">
         <f t="shared" si="12"/>
         <v>Ф</v>
       </c>
@@ -20277,7 +20371,7 @@
       <c r="C153" s="7">
         <v>146</v>
       </c>
-      <c r="D153" s="28" t="str">
+      <c r="D153" s="27" t="str">
         <f t="shared" si="12"/>
         <v>,</v>
       </c>
@@ -20297,7 +20391,7 @@
       <c r="C154" s="7">
         <v>147</v>
       </c>
-      <c r="D154" s="28" t="str">
+      <c r="D154" s="27" t="str">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
@@ -20317,7 +20411,7 @@
       <c r="C155" s="7">
         <v>148</v>
       </c>
-      <c r="D155" s="28" t="str">
+      <c r="D155" s="27" t="str">
         <f t="shared" si="12"/>
         <v>Ш</v>
       </c>
@@ -20337,7 +20431,7 @@
       <c r="C156" s="7">
         <v>149</v>
       </c>
-      <c r="D156" s="28" t="str">
+      <c r="D156" s="27" t="str">
         <f t="shared" si="12"/>
         <v>И</v>
       </c>
@@ -20357,7 +20451,7 @@
       <c r="C157" s="7">
         <v>150</v>
       </c>
-      <c r="D157" s="28" t="str">
+      <c r="D157" s="27" t="str">
         <f t="shared" si="12"/>
         <v>Т</v>
       </c>
@@ -20377,7 +20471,7 @@
       <c r="C158" s="7">
         <v>151</v>
       </c>
-      <c r="D158" s="28" t="str">
+      <c r="D158" s="27" t="str">
         <f t="shared" si="12"/>
         <v>З</v>
       </c>
@@ -20397,7 +20491,7 @@
       <c r="C159" s="7">
         <v>152</v>
       </c>
-      <c r="D159" s="28" t="str">
+      <c r="D159" s="27" t="str">
         <f t="shared" ref="D159:D161" si="14">MID(C$1,C159,1)</f>
         <v>Т</v>
       </c>
@@ -20417,7 +20511,7 @@
       <c r="C160" s="7">
         <v>153</v>
       </c>
-      <c r="D160" s="28" t="str">
+      <c r="D160" s="27" t="str">
         <f t="shared" si="14"/>
         <v>Х</v>
       </c>
@@ -20437,7 +20531,7 @@
       <c r="C161" s="7">
         <v>154</v>
       </c>
-      <c r="D161" s="28" t="str">
+      <c r="D161" s="27" t="str">
         <f t="shared" si="14"/>
         <v>,</v>
       </c>
@@ -20457,7 +20551,7 @@
       <c r="C162" s="7">
         <v>155</v>
       </c>
-      <c r="D162" s="28" t="str">
+      <c r="D162" s="27" t="str">
         <f t="shared" ref="D162:D166" si="16">MID(C$1,C162,1)</f>
         <v>И</v>
       </c>
@@ -20477,7 +20571,7 @@
       <c r="C163" s="7">
         <v>156</v>
       </c>
-      <c r="D163" s="28" t="str">
+      <c r="D163" s="27" t="str">
         <f t="shared" si="16"/>
         <v>Ё</v>
       </c>
@@ -20497,7 +20591,7 @@
       <c r="C164" s="7">
         <v>157</v>
       </c>
-      <c r="D164" s="28" t="str">
+      <c r="D164" s="27" t="str">
         <f t="shared" si="16"/>
         <v>М</v>
       </c>
@@ -20517,7 +20611,7 @@
       <c r="C165" s="7">
         <v>158</v>
       </c>
-      <c r="D165" s="28" t="str">
+      <c r="D165" s="27" t="str">
         <f t="shared" si="16"/>
         <v>Ы</v>
       </c>
@@ -20537,7 +20631,7 @@
       <c r="C166" s="7">
         <v>159</v>
       </c>
-      <c r="D166" s="28" t="str">
+      <c r="D166" s="27" t="str">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
